--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_2_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_2_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>825428.1830716236</v>
+        <v>693544.3714911542</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23039772.7114937</v>
+        <v>23039772.71149371</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4766807.785761882</v>
+        <v>4766807.785761881</v>
       </c>
     </row>
     <row r="11">
@@ -1375,25 +1375,25 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>68.53036819936777</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>16.95957427136616</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>61.87802121314192</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1414,13 +1414,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>67.6980104873827</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>78.00523777252297</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>78.00523777252297</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>10.65214074746017</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>78.00523777252297</v>
+        <v>68.70701343003827</v>
       </c>
       <c r="H12" t="n">
-        <v>78.00523777252297</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>78.00523777252297</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>58.05487268257806</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1511,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1618,19 +1618,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>6.652346986225918</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>78.00523777252297</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>78.00523777252297</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>78.00523777252297</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>61.87802121314192</v>
+        <v>0.8323577119851003</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>67.69801048738267</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>78.00523777252303</v>
       </c>
     </row>
     <row r="15">
@@ -1694,22 +1694,22 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>68.70701343003827</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>78.00523777252297</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>58.05487268257806</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>78.00523777252297</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>78.00523777252297</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>10.65214074746017</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1748,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1855,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>6.652346986225918</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="G17" t="n">
-        <v>78.00523777252297</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>78.00523777252297</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>78.00523777252297</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>61.87802121314192</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>68.53036819936777</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>78.00523777252303</v>
       </c>
     </row>
     <row r="18">
@@ -1934,19 +1934,19 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>10.65214074746017</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>78.00523777252297</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="H18" t="n">
-        <v>78.00523777252297</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>78.00523777252297</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>58.05487268257806</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1967,16 +1967,16 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>22.206312720642</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>46.50070070939627</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>78.00523777252297</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>78.00523777252297</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>68.53036819936783</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>78.00523777252297</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2137,13 +2137,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>68.53036819936777</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2204,31 +2204,31 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.20631272064202</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>78.00523777252297</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="T21" t="n">
-        <v>78.00523777252297</v>
+        <v>68.70701343003827</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="V21" t="n">
-        <v>78.00523777252297</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>46.50070070939621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>108.8082787932841</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>36.50136614598041</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>108.8082787932841</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>67.69801048738267</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>77.61163445188181</v>
       </c>
       <c r="W23" t="n">
         <v>108.8082787932841</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>108.8082787932841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>95.83833196112458</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2441,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>22.206312720642</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2453,19 +2453,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>108.8082787932841</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>108.8082787932841</v>
       </c>
       <c r="W24" t="n">
         <v>108.8082787932841</v>
       </c>
       <c r="X24" t="n">
-        <v>108.8082787932841</v>
+        <v>73.63201924048259</v>
       </c>
       <c r="Y24" t="n">
-        <v>108.8082787932841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>108.8082787932841</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>77.61163445188176</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2599,25 +2599,25 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>67.6980104873827</v>
+        <v>67.69801048738267</v>
       </c>
       <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>77.61163445188181</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>108.8082787932841</v>
-      </c>
-      <c r="S26" t="n">
-        <v>108.8082787932841</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>108.8082787932841</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>108.8082787932841</v>
       </c>
       <c r="H27" t="n">
-        <v>95.83833196112458</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2678,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>22.206312720642</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -2687,22 +2687,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>108.8082787932841</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>73.63201924048259</v>
       </c>
       <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
         <v>108.8082787932841</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2797,67 +2797,67 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
         <v>108.8082787932841</v>
       </c>
-      <c r="E29" t="n">
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
         <v>108.8082787932841</v>
       </c>
-      <c r="F29" t="n">
+      <c r="V29" t="n">
         <v>108.8082787932841</v>
       </c>
-      <c r="G29" t="n">
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
         <v>36.50136614598041</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2870,73 +2870,73 @@
         </is>
       </c>
       <c r="B30" t="n">
+        <v>95.83833196112458</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
         <v>108.8082787932841</v>
       </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
         <v>108.8082787932841</v>
       </c>
-      <c r="G30" t="n">
-        <v>95.83833196112458</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" t="n">
+      <c r="X30" t="n">
         <v>108.8082787932841</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3031,13 +3031,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>36.50136614598041</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>108.8082787932841</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>108.8082787932841</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>108.8082787932841</v>
       </c>
       <c r="V32" t="n">
-        <v>108.8082787932841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>108.8082787932841</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>108.8082787932841</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>36.50136614598041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,55 +3107,55 @@
         </is>
       </c>
       <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>95.83833196112458</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
         <v>108.8082787932841</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>74.01817715504384</v>
-      </c>
-      <c r="I33" t="n">
-        <v>108.4221208787228</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>22.20631272064202</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>108.8082787932841</v>
       </c>
     </row>
     <row r="34">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>78.00523777252297</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>6.652346986225918</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3280,16 +3280,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>78.00523777252297</v>
+        <v>78.00523777252326</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>78.00523777252297</v>
+        <v>0.8323577119849692</v>
       </c>
       <c r="J35" t="n">
-        <v>61.87802121314192</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>67.69801048738267</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3322,10 +3322,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>78.00523777252326</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>78.00523777252326</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>78.00523777252297</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>10.65214074746015</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>58.05487268257806</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3395,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>68.70701343003847</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>78.00523777252326</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>78.00523777252326</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>78.00523777252297</v>
+        <v>78.00523777252326</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>78.00523777252297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>68.53036819936763</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>78.00523777252326</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>78.00523777252326</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>78.00523777252326</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>78.00523777252297</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3562,13 +3562,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>78.00523777252297</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>78.00523777252297</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>68.53036819936783</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3584,22 +3584,22 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>78.00523777252297</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>78.00523777252297</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>68.70701343003822</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>78.00523777252326</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3635,16 +3635,16 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>78.00523777252326</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>78.00523777252326</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>68.70701343003849</v>
       </c>
       <c r="W39" t="n">
-        <v>78.00523777252297</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>78.00523777252297</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>68.53036819936777</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>78.00523777252297</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3784,22 +3784,22 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>67.6980104873827</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0.8323577119851011</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>78.00523777252297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>68.70701343003822</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>78.00523777252297</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3830,10 +3830,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>68.70701343003827</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3872,22 +3872,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>78.00523777252297</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>78.00523777252297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3991,16 +3991,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>78.00523777252297</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.8323577119851047</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>67.6980104873827</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4030,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="U44" t="n">
-        <v>78.00523777252297</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>78.00523777252297</v>
+        <v>68.53036819936777</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4061,25 +4061,25 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>10.65214074746017</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="I45" t="n">
-        <v>78.00523777252297</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>58.05487268257806</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4112,13 +4112,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>78.00523777252297</v>
+        <v>68.70701343003827</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>78.00523777252297</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>85.87435385463829</v>
+        <v>233.0493520969673</v>
       </c>
       <c r="C11" t="n">
-        <v>85.87435385463829</v>
+        <v>233.0493520969673</v>
       </c>
       <c r="D11" t="n">
-        <v>85.87435385463829</v>
+        <v>163.8267579561918</v>
       </c>
       <c r="E11" t="n">
-        <v>85.87435385463829</v>
+        <v>163.8267579561918</v>
       </c>
       <c r="F11" t="n">
-        <v>85.87435385463829</v>
+        <v>85.03358848899683</v>
       </c>
       <c r="G11" t="n">
-        <v>85.87435385463829</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="H11" t="n">
-        <v>85.87435385463829</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="I11" t="n">
-        <v>68.74347075224823</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="J11" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="K11" t="n">
-        <v>6.835413876510493</v>
+        <v>6.835413876510525</v>
       </c>
       <c r="L11" t="n">
-        <v>65.5398494019706</v>
+        <v>65.53984940197063</v>
       </c>
       <c r="M11" t="n">
         <v>142.7650347967684</v>
       </c>
       <c r="N11" t="n">
-        <v>219.9902201915661</v>
+        <v>219.9902201915662</v>
       </c>
       <c r="O11" t="n">
-        <v>297.2154055863638</v>
+        <v>297.215405586364</v>
       </c>
       <c r="P11" t="n">
-        <v>311.8425215641622</v>
+        <v>311.8425215641623</v>
       </c>
       <c r="Q11" t="n">
-        <v>243.4606927890281</v>
+        <v>311.8425215641623</v>
       </c>
       <c r="R11" t="n">
-        <v>164.6675233218332</v>
+        <v>311.8425215641623</v>
       </c>
       <c r="S11" t="n">
-        <v>85.87435385463829</v>
+        <v>311.8425215641623</v>
       </c>
       <c r="T11" t="n">
-        <v>85.87435385463829</v>
+        <v>311.8425215641623</v>
       </c>
       <c r="U11" t="n">
-        <v>85.87435385463829</v>
+        <v>311.8425215641623</v>
       </c>
       <c r="V11" t="n">
-        <v>85.87435385463829</v>
+        <v>233.0493520969673</v>
       </c>
       <c r="W11" t="n">
-        <v>85.87435385463829</v>
+        <v>233.0493520969673</v>
       </c>
       <c r="X11" t="n">
-        <v>85.87435385463829</v>
+        <v>233.0493520969673</v>
       </c>
       <c r="Y11" t="n">
-        <v>85.87435385463829</v>
+        <v>233.0493520969673</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>312.0209510900919</v>
+        <v>75.64144268850717</v>
       </c>
       <c r="C12" t="n">
-        <v>312.0209510900919</v>
+        <v>75.64144268850717</v>
       </c>
       <c r="D12" t="n">
-        <v>312.0209510900919</v>
+        <v>75.64144268850717</v>
       </c>
       <c r="E12" t="n">
-        <v>312.0209510900919</v>
+        <v>75.64144268850717</v>
       </c>
       <c r="F12" t="n">
-        <v>301.2612129613443</v>
+        <v>75.64144268850717</v>
       </c>
       <c r="G12" t="n">
-        <v>222.4680434941493</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="H12" t="n">
-        <v>143.6748740269544</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="I12" t="n">
-        <v>64.88170455975948</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="J12" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="K12" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="L12" t="n">
-        <v>21.00422656902997</v>
+        <v>21.00422656903001</v>
       </c>
       <c r="M12" t="n">
-        <v>89.75459271212088</v>
+        <v>98.22941196382781</v>
       </c>
       <c r="N12" t="n">
-        <v>157.5705803004964</v>
+        <v>166.0453995522034</v>
       </c>
       <c r="O12" t="n">
-        <v>234.7957656952942</v>
+        <v>234.7957656952943</v>
       </c>
       <c r="P12" t="n">
-        <v>312.0209510900919</v>
+        <v>312.0209510900921</v>
       </c>
       <c r="Q12" t="n">
-        <v>312.0209510900919</v>
+        <v>312.0209510900921</v>
       </c>
       <c r="R12" t="n">
-        <v>312.0209510900919</v>
+        <v>233.2277816228971</v>
       </c>
       <c r="S12" t="n">
-        <v>312.0209510900919</v>
+        <v>154.4346121557022</v>
       </c>
       <c r="T12" t="n">
-        <v>312.0209510900919</v>
+        <v>154.4346121557022</v>
       </c>
       <c r="U12" t="n">
-        <v>312.0209510900919</v>
+        <v>154.4346121557022</v>
       </c>
       <c r="V12" t="n">
-        <v>312.0209510900919</v>
+        <v>154.4346121557022</v>
       </c>
       <c r="W12" t="n">
-        <v>312.0209510900919</v>
+        <v>75.64144268850717</v>
       </c>
       <c r="X12" t="n">
-        <v>312.0209510900919</v>
+        <v>75.64144268850717</v>
       </c>
       <c r="Y12" t="n">
-        <v>312.0209510900919</v>
+        <v>75.64144268850717</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="C13" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="D13" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="E13" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="F13" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="G13" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="H13" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="I13" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="J13" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="K13" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="L13" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="M13" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="N13" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="O13" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="P13" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="Q13" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="R13" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="S13" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="T13" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="U13" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="V13" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="W13" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="X13" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>311.8425215641622</v>
+        <v>7.081184387443358</v>
       </c>
       <c r="C14" t="n">
-        <v>311.8425215641622</v>
+        <v>7.081184387443358</v>
       </c>
       <c r="D14" t="n">
-        <v>311.8425215641622</v>
+        <v>7.081184387443358</v>
       </c>
       <c r="E14" t="n">
-        <v>311.8425215641622</v>
+        <v>7.081184387443358</v>
       </c>
       <c r="F14" t="n">
-        <v>305.122979153833</v>
+        <v>7.081184387443358</v>
       </c>
       <c r="G14" t="n">
-        <v>226.3298096866381</v>
+        <v>7.081184387443358</v>
       </c>
       <c r="H14" t="n">
-        <v>147.5366402194431</v>
+        <v>7.081184387443358</v>
       </c>
       <c r="I14" t="n">
-        <v>68.74347075224823</v>
+        <v>7.081184387443358</v>
       </c>
       <c r="J14" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="K14" t="n">
-        <v>6.835413876510493</v>
+        <v>6.835413876510525</v>
       </c>
       <c r="L14" t="n">
-        <v>65.5398494019706</v>
+        <v>65.53984940197063</v>
       </c>
       <c r="M14" t="n">
         <v>142.7650347967684</v>
       </c>
       <c r="N14" t="n">
-        <v>219.9902201915661</v>
+        <v>219.9902201915662</v>
       </c>
       <c r="O14" t="n">
-        <v>297.2154055863638</v>
+        <v>297.215405586364</v>
       </c>
       <c r="P14" t="n">
-        <v>311.8425215641622</v>
+        <v>311.8425215641623</v>
       </c>
       <c r="Q14" t="n">
-        <v>311.8425215641622</v>
+        <v>243.4606927890283</v>
       </c>
       <c r="R14" t="n">
-        <v>311.8425215641622</v>
+        <v>243.4606927890283</v>
       </c>
       <c r="S14" t="n">
-        <v>311.8425215641622</v>
+        <v>243.4606927890283</v>
       </c>
       <c r="T14" t="n">
-        <v>311.8425215641622</v>
+        <v>243.4606927890283</v>
       </c>
       <c r="U14" t="n">
-        <v>311.8425215641622</v>
+        <v>164.6675233218333</v>
       </c>
       <c r="V14" t="n">
-        <v>311.8425215641622</v>
+        <v>85.87435385463834</v>
       </c>
       <c r="W14" t="n">
-        <v>311.8425215641622</v>
+        <v>85.87435385463834</v>
       </c>
       <c r="X14" t="n">
-        <v>311.8425215641622</v>
+        <v>85.87435385463834</v>
       </c>
       <c r="Y14" t="n">
-        <v>311.8425215641622</v>
+        <v>7.081184387443358</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>143.6748740269544</v>
+        <v>233.2277816228971</v>
       </c>
       <c r="C15" t="n">
-        <v>143.6748740269544</v>
+        <v>233.2277816228971</v>
       </c>
       <c r="D15" t="n">
-        <v>143.6748740269544</v>
+        <v>233.2277816228971</v>
       </c>
       <c r="E15" t="n">
-        <v>143.6748740269544</v>
+        <v>163.8267579561918</v>
       </c>
       <c r="F15" t="n">
-        <v>143.6748740269544</v>
+        <v>85.03358848899683</v>
       </c>
       <c r="G15" t="n">
-        <v>143.6748740269544</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="H15" t="n">
-        <v>143.6748740269544</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="I15" t="n">
-        <v>64.88170455975948</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="J15" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="K15" t="n">
-        <v>6.240419021801838</v>
+        <v>34.91024094736152</v>
       </c>
       <c r="L15" t="n">
-        <v>44.21650596637951</v>
+        <v>49.67404849458968</v>
       </c>
       <c r="M15" t="n">
-        <v>89.75459271212088</v>
+        <v>126.8992338893875</v>
       </c>
       <c r="N15" t="n">
-        <v>157.5705803004964</v>
+        <v>204.1244192841853</v>
       </c>
       <c r="O15" t="n">
-        <v>234.7957656952942</v>
+        <v>281.3496046789831</v>
       </c>
       <c r="P15" t="n">
-        <v>312.0209510900919</v>
+        <v>312.0209510900921</v>
       </c>
       <c r="Q15" t="n">
-        <v>312.0209510900919</v>
+        <v>312.0209510900921</v>
       </c>
       <c r="R15" t="n">
-        <v>233.227781622897</v>
+        <v>312.0209510900921</v>
       </c>
       <c r="S15" t="n">
-        <v>154.434612155702</v>
+        <v>312.0209510900921</v>
       </c>
       <c r="T15" t="n">
-        <v>143.6748740269544</v>
+        <v>312.0209510900921</v>
       </c>
       <c r="U15" t="n">
-        <v>143.6748740269544</v>
+        <v>312.0209510900921</v>
       </c>
       <c r="V15" t="n">
-        <v>143.6748740269544</v>
+        <v>312.0209510900921</v>
       </c>
       <c r="W15" t="n">
-        <v>143.6748740269544</v>
+        <v>233.2277816228971</v>
       </c>
       <c r="X15" t="n">
-        <v>143.6748740269544</v>
+        <v>233.2277816228971</v>
       </c>
       <c r="Y15" t="n">
-        <v>143.6748740269544</v>
+        <v>233.2277816228971</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="C16" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="D16" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="E16" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="F16" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="G16" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="H16" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="I16" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="J16" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="K16" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="L16" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="M16" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="N16" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="O16" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="P16" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="Q16" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="R16" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="S16" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="T16" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="U16" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="V16" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="W16" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="X16" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>311.8425215641622</v>
+        <v>85.03358848899683</v>
       </c>
       <c r="C17" t="n">
-        <v>311.8425215641622</v>
+        <v>85.03358848899683</v>
       </c>
       <c r="D17" t="n">
-        <v>311.8425215641622</v>
+        <v>85.03358848899683</v>
       </c>
       <c r="E17" t="n">
-        <v>311.8425215641622</v>
+        <v>85.03358848899683</v>
       </c>
       <c r="F17" t="n">
-        <v>305.122979153833</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="G17" t="n">
-        <v>226.3298096866381</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="H17" t="n">
-        <v>147.5366402194431</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="I17" t="n">
-        <v>68.74347075224823</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="J17" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="K17" t="n">
-        <v>6.835413876510493</v>
+        <v>6.835413876510525</v>
       </c>
       <c r="L17" t="n">
-        <v>65.5398494019706</v>
+        <v>65.53984940197063</v>
       </c>
       <c r="M17" t="n">
         <v>142.7650347967684</v>
       </c>
       <c r="N17" t="n">
-        <v>219.9902201915661</v>
+        <v>219.9902201915662</v>
       </c>
       <c r="O17" t="n">
-        <v>297.2154055863638</v>
+        <v>297.215405586364</v>
       </c>
       <c r="P17" t="n">
-        <v>311.8425215641622</v>
+        <v>311.8425215641623</v>
       </c>
       <c r="Q17" t="n">
-        <v>311.8425215641622</v>
+        <v>311.8425215641623</v>
       </c>
       <c r="R17" t="n">
-        <v>311.8425215641622</v>
+        <v>311.8425215641623</v>
       </c>
       <c r="S17" t="n">
-        <v>311.8425215641622</v>
+        <v>311.8425215641623</v>
       </c>
       <c r="T17" t="n">
-        <v>311.8425215641622</v>
+        <v>311.8425215641623</v>
       </c>
       <c r="U17" t="n">
-        <v>311.8425215641622</v>
+        <v>242.6199274233868</v>
       </c>
       <c r="V17" t="n">
-        <v>311.8425215641622</v>
+        <v>242.6199274233868</v>
       </c>
       <c r="W17" t="n">
-        <v>311.8425215641622</v>
+        <v>242.6199274233868</v>
       </c>
       <c r="X17" t="n">
-        <v>311.8425215641622</v>
+        <v>163.8267579561918</v>
       </c>
       <c r="Y17" t="n">
-        <v>311.8425215641622</v>
+        <v>85.03358848899683</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>312.0209510900919</v>
+        <v>85.03358848899683</v>
       </c>
       <c r="C18" t="n">
-        <v>312.0209510900919</v>
+        <v>85.03358848899683</v>
       </c>
       <c r="D18" t="n">
-        <v>312.0209510900919</v>
+        <v>85.03358848899683</v>
       </c>
       <c r="E18" t="n">
-        <v>312.0209510900919</v>
+        <v>85.03358848899683</v>
       </c>
       <c r="F18" t="n">
-        <v>301.2612129613443</v>
+        <v>85.03358848899683</v>
       </c>
       <c r="G18" t="n">
-        <v>222.4680434941493</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="H18" t="n">
-        <v>143.6748740269544</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="I18" t="n">
-        <v>64.88170455975948</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="J18" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="K18" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="L18" t="n">
-        <v>83.46560441659959</v>
+        <v>83.46560441659965</v>
       </c>
       <c r="M18" t="n">
-        <v>160.6907898113973</v>
+        <v>129.0036911623411</v>
       </c>
       <c r="N18" t="n">
-        <v>228.5067773997729</v>
+        <v>196.8196787507166</v>
       </c>
       <c r="O18" t="n">
-        <v>258.048706636463</v>
+        <v>234.7957656952943</v>
       </c>
       <c r="P18" t="n">
-        <v>312.0209510900919</v>
+        <v>312.0209510900921</v>
       </c>
       <c r="Q18" t="n">
-        <v>312.0209510900919</v>
+        <v>289.5903321803527</v>
       </c>
       <c r="R18" t="n">
-        <v>312.0209510900919</v>
+        <v>210.7971627131577</v>
       </c>
       <c r="S18" t="n">
-        <v>312.0209510900919</v>
+        <v>132.0039932459628</v>
       </c>
       <c r="T18" t="n">
-        <v>312.0209510900919</v>
+        <v>85.03358848899683</v>
       </c>
       <c r="U18" t="n">
-        <v>312.0209510900919</v>
+        <v>85.03358848899683</v>
       </c>
       <c r="V18" t="n">
-        <v>312.0209510900919</v>
+        <v>85.03358848899683</v>
       </c>
       <c r="W18" t="n">
-        <v>312.0209510900919</v>
+        <v>85.03358848899683</v>
       </c>
       <c r="X18" t="n">
-        <v>312.0209510900919</v>
+        <v>85.03358848899683</v>
       </c>
       <c r="Y18" t="n">
-        <v>312.0209510900919</v>
+        <v>85.03358848899683</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="C19" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="D19" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="E19" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="F19" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="G19" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="H19" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="I19" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="J19" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="K19" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="L19" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="M19" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="N19" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="O19" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="P19" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="Q19" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="R19" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="S19" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="T19" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="U19" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="V19" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="W19" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="X19" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>233.0493520969673</v>
+        <v>85.03358848899683</v>
       </c>
       <c r="C20" t="n">
-        <v>233.0493520969673</v>
+        <v>85.03358848899683</v>
       </c>
       <c r="D20" t="n">
-        <v>233.0493520969673</v>
+        <v>85.03358848899683</v>
       </c>
       <c r="E20" t="n">
-        <v>154.2561826297724</v>
+        <v>85.03358848899683</v>
       </c>
       <c r="F20" t="n">
-        <v>75.46301316257743</v>
+        <v>85.03358848899683</v>
       </c>
       <c r="G20" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="H20" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="I20" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="J20" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="K20" t="n">
-        <v>6.835413876510493</v>
+        <v>6.835413876510525</v>
       </c>
       <c r="L20" t="n">
-        <v>65.5398494019706</v>
+        <v>65.53984940197063</v>
       </c>
       <c r="M20" t="n">
         <v>142.7650347967684</v>
       </c>
       <c r="N20" t="n">
-        <v>219.9902201915661</v>
+        <v>219.9902201915662</v>
       </c>
       <c r="O20" t="n">
-        <v>297.2154055863638</v>
+        <v>297.215405586364</v>
       </c>
       <c r="P20" t="n">
-        <v>311.8425215641622</v>
+        <v>311.8425215641623</v>
       </c>
       <c r="Q20" t="n">
-        <v>311.8425215641622</v>
+        <v>311.8425215641623</v>
       </c>
       <c r="R20" t="n">
-        <v>233.0493520969673</v>
+        <v>311.8425215641623</v>
       </c>
       <c r="S20" t="n">
-        <v>233.0493520969673</v>
+        <v>311.8425215641623</v>
       </c>
       <c r="T20" t="n">
-        <v>233.0493520969673</v>
+        <v>311.8425215641623</v>
       </c>
       <c r="U20" t="n">
         <v>233.0493520969673</v>
       </c>
       <c r="V20" t="n">
-        <v>233.0493520969673</v>
+        <v>154.2561826297724</v>
       </c>
       <c r="W20" t="n">
-        <v>233.0493520969673</v>
+        <v>85.03358848899683</v>
       </c>
       <c r="X20" t="n">
-        <v>233.0493520969673</v>
+        <v>85.03358848899683</v>
       </c>
       <c r="Y20" t="n">
-        <v>233.0493520969673</v>
+        <v>85.03358848899683</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="C21" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="D21" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="E21" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="F21" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="G21" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="H21" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="I21" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="J21" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="K21" t="n">
-        <v>34.91024094736149</v>
+        <v>34.91024094736152</v>
       </c>
       <c r="L21" t="n">
-        <v>112.1354263421592</v>
+        <v>91.89976212448727</v>
       </c>
       <c r="M21" t="n">
-        <v>166.9797781069186</v>
+        <v>137.4378488702287</v>
       </c>
       <c r="N21" t="n">
-        <v>234.7957656952942</v>
+        <v>205.2538364586042</v>
       </c>
       <c r="O21" t="n">
-        <v>312.0209510900919</v>
+        <v>234.7957656952943</v>
       </c>
       <c r="P21" t="n">
-        <v>312.0209510900919</v>
+        <v>312.0209510900921</v>
       </c>
       <c r="Q21" t="n">
-        <v>289.5903321803525</v>
+        <v>312.0209510900921</v>
       </c>
       <c r="R21" t="n">
-        <v>289.5903321803525</v>
+        <v>312.0209510900921</v>
       </c>
       <c r="S21" t="n">
-        <v>210.7971627131576</v>
+        <v>233.2277816228971</v>
       </c>
       <c r="T21" t="n">
-        <v>132.0039932459626</v>
+        <v>163.8267579561918</v>
       </c>
       <c r="U21" t="n">
-        <v>132.0039932459626</v>
+        <v>85.03358848899683</v>
       </c>
       <c r="V21" t="n">
-        <v>53.21082377876772</v>
+        <v>85.03358848899683</v>
       </c>
       <c r="W21" t="n">
-        <v>53.21082377876772</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="X21" t="n">
-        <v>53.21082377876772</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="Y21" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="C22" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="D22" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="E22" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="F22" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="G22" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="H22" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="I22" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="J22" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="K22" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="L22" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="M22" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="N22" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="O22" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="P22" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="R22" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="S22" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="T22" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="U22" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="V22" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="W22" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="X22" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>155.4820814340329</v>
+        <v>118.6120146199113</v>
       </c>
       <c r="C23" t="n">
-        <v>155.4820814340329</v>
+        <v>8.704662303462726</v>
       </c>
       <c r="D23" t="n">
-        <v>155.4820814340329</v>
+        <v>8.704662303462726</v>
       </c>
       <c r="E23" t="n">
-        <v>155.4820814340329</v>
+        <v>8.704662303462726</v>
       </c>
       <c r="F23" t="n">
-        <v>155.4820814340329</v>
+        <v>8.704662303462726</v>
       </c>
       <c r="G23" t="n">
-        <v>155.4820814340329</v>
+        <v>8.704662303462726</v>
       </c>
       <c r="H23" t="n">
-        <v>118.6120146199113</v>
+        <v>8.704662303462726</v>
       </c>
       <c r="I23" t="n">
         <v>8.704662303462726</v>
@@ -5992,10 +5992,10 @@
         <v>8.704662303462726</v>
       </c>
       <c r="K23" t="n">
-        <v>9.29965715817138</v>
+        <v>9.299657158171408</v>
       </c>
       <c r="L23" t="n">
-        <v>68.00409268363148</v>
+        <v>68.00409268363151</v>
       </c>
       <c r="M23" t="n">
         <v>175.7242886889827</v>
@@ -6010,31 +6010,31 @@
         <v>375.2967860669301</v>
       </c>
       <c r="Q23" t="n">
-        <v>375.2967860669301</v>
+        <v>306.914957291796</v>
       </c>
       <c r="R23" t="n">
-        <v>375.2967860669301</v>
+        <v>306.914957291796</v>
       </c>
       <c r="S23" t="n">
-        <v>375.2967860669301</v>
+        <v>306.914957291796</v>
       </c>
       <c r="T23" t="n">
-        <v>375.2967860669301</v>
+        <v>306.914957291796</v>
       </c>
       <c r="U23" t="n">
-        <v>375.2967860669301</v>
+        <v>306.914957291796</v>
       </c>
       <c r="V23" t="n">
-        <v>375.2967860669301</v>
+        <v>228.5193669363599</v>
       </c>
       <c r="W23" t="n">
-        <v>265.3894337504815</v>
+        <v>118.6120146199113</v>
       </c>
       <c r="X23" t="n">
-        <v>265.3894337504815</v>
+        <v>118.6120146199113</v>
       </c>
       <c r="Y23" t="n">
-        <v>155.4820814340329</v>
+        <v>118.6120146199113</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>105.5110582237906</v>
+        <v>8.704662303462726</v>
       </c>
       <c r="C24" t="n">
-        <v>105.5110582237906</v>
+        <v>8.704662303462726</v>
       </c>
       <c r="D24" t="n">
-        <v>105.5110582237906</v>
+        <v>8.704662303462726</v>
       </c>
       <c r="E24" t="n">
-        <v>105.5110582237906</v>
+        <v>8.704662303462726</v>
       </c>
       <c r="F24" t="n">
-        <v>105.5110582237906</v>
+        <v>8.704662303462726</v>
       </c>
       <c r="G24" t="n">
-        <v>105.5110582237906</v>
+        <v>8.704662303462726</v>
       </c>
       <c r="H24" t="n">
-        <v>105.5110582237906</v>
+        <v>8.704662303462726</v>
       </c>
       <c r="I24" t="n">
         <v>8.704662303462726</v>
@@ -6071,49 +6071,49 @@
         <v>8.704662303462726</v>
       </c>
       <c r="K24" t="n">
-        <v>37.37448422902237</v>
+        <v>8.704662303462726</v>
       </c>
       <c r="L24" t="n">
-        <v>145.0946802343736</v>
+        <v>34.66481721502578</v>
       </c>
       <c r="M24" t="n">
-        <v>252.8148762397248</v>
+        <v>142.385013220377</v>
       </c>
       <c r="N24" t="n">
-        <v>360.535072245076</v>
+        <v>250.1052092257282</v>
       </c>
       <c r="O24" t="n">
-        <v>435.2331151731363</v>
+        <v>357.8254052310795</v>
       </c>
       <c r="P24" t="n">
         <v>435.2331151731363</v>
       </c>
       <c r="Q24" t="n">
-        <v>435.2331151731363</v>
+        <v>412.8024962633969</v>
       </c>
       <c r="R24" t="n">
-        <v>435.2331151731363</v>
+        <v>412.8024962633969</v>
       </c>
       <c r="S24" t="n">
-        <v>435.2331151731363</v>
+        <v>412.8024962633969</v>
       </c>
       <c r="T24" t="n">
-        <v>435.2331151731363</v>
+        <v>412.8024962633969</v>
       </c>
       <c r="U24" t="n">
-        <v>435.2331151731363</v>
+        <v>302.8951439469483</v>
       </c>
       <c r="V24" t="n">
-        <v>435.2331151731363</v>
+        <v>192.9877916304998</v>
       </c>
       <c r="W24" t="n">
-        <v>325.3257628566877</v>
+        <v>83.0804393140512</v>
       </c>
       <c r="X24" t="n">
-        <v>215.4184105402392</v>
+        <v>8.704662303462726</v>
       </c>
       <c r="Y24" t="n">
-        <v>105.5110582237906</v>
+        <v>8.704662303462726</v>
       </c>
     </row>
     <row r="25">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>87.10025265889885</v>
+        <v>118.6120146199113</v>
       </c>
       <c r="C26" t="n">
-        <v>87.10025265889885</v>
+        <v>8.704662303462726</v>
       </c>
       <c r="D26" t="n">
-        <v>87.10025265889885</v>
+        <v>8.704662303462726</v>
       </c>
       <c r="E26" t="n">
-        <v>87.10025265889885</v>
+        <v>8.704662303462726</v>
       </c>
       <c r="F26" t="n">
         <v>8.704662303462726</v>
@@ -6229,10 +6229,10 @@
         <v>8.704662303462726</v>
       </c>
       <c r="K26" t="n">
-        <v>9.29965715817138</v>
+        <v>9.299657158171408</v>
       </c>
       <c r="L26" t="n">
-        <v>68.00409268363148</v>
+        <v>68.00409268363151</v>
       </c>
       <c r="M26" t="n">
         <v>175.7242886889827</v>
@@ -6250,28 +6250,28 @@
         <v>306.914957291796</v>
       </c>
       <c r="R26" t="n">
-        <v>197.0076049753474</v>
+        <v>306.914957291796</v>
       </c>
       <c r="S26" t="n">
-        <v>87.10025265889885</v>
+        <v>306.914957291796</v>
       </c>
       <c r="T26" t="n">
-        <v>87.10025265889885</v>
+        <v>306.914957291796</v>
       </c>
       <c r="U26" t="n">
-        <v>87.10025265889885</v>
+        <v>228.5193669363599</v>
       </c>
       <c r="V26" t="n">
-        <v>87.10025265889885</v>
+        <v>228.5193669363599</v>
       </c>
       <c r="W26" t="n">
-        <v>87.10025265889885</v>
+        <v>118.6120146199113</v>
       </c>
       <c r="X26" t="n">
-        <v>87.10025265889885</v>
+        <v>118.6120146199113</v>
       </c>
       <c r="Y26" t="n">
-        <v>87.10025265889885</v>
+        <v>118.6120146199113</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>325.3257628566877</v>
+        <v>118.6120146199113</v>
       </c>
       <c r="C27" t="n">
-        <v>325.3257628566877</v>
+        <v>118.6120146199113</v>
       </c>
       <c r="D27" t="n">
-        <v>325.3257628566877</v>
+        <v>118.6120146199113</v>
       </c>
       <c r="E27" t="n">
-        <v>215.4184105402392</v>
+        <v>118.6120146199113</v>
       </c>
       <c r="F27" t="n">
-        <v>215.4184105402392</v>
+        <v>118.6120146199113</v>
       </c>
       <c r="G27" t="n">
-        <v>105.5110582237906</v>
+        <v>8.704662303462726</v>
       </c>
       <c r="H27" t="n">
         <v>8.704662303462726</v>
@@ -6308,49 +6308,49 @@
         <v>8.704662303462726</v>
       </c>
       <c r="K27" t="n">
-        <v>37.37448422902237</v>
+        <v>8.704662303462726</v>
       </c>
       <c r="L27" t="n">
-        <v>145.0946802343736</v>
+        <v>116.424858308814</v>
       </c>
       <c r="M27" t="n">
-        <v>219.7927231624338</v>
+        <v>182.2892216373527</v>
       </c>
       <c r="N27" t="n">
-        <v>327.5129191677851</v>
+        <v>250.1052092257282</v>
       </c>
       <c r="O27" t="n">
-        <v>435.2331151731363</v>
+        <v>357.8254052310795</v>
       </c>
       <c r="P27" t="n">
         <v>435.2331151731363</v>
       </c>
       <c r="Q27" t="n">
-        <v>435.2331151731363</v>
+        <v>412.8024962633969</v>
       </c>
       <c r="R27" t="n">
-        <v>435.2331151731363</v>
+        <v>412.8024962633969</v>
       </c>
       <c r="S27" t="n">
-        <v>435.2331151731363</v>
+        <v>412.8024962633969</v>
       </c>
       <c r="T27" t="n">
-        <v>435.2331151731363</v>
+        <v>302.8951439469483</v>
       </c>
       <c r="U27" t="n">
-        <v>435.2331151731363</v>
+        <v>228.5193669363599</v>
       </c>
       <c r="V27" t="n">
-        <v>325.3257628566877</v>
+        <v>228.5193669363599</v>
       </c>
       <c r="W27" t="n">
-        <v>325.3257628566877</v>
+        <v>228.5193669363599</v>
       </c>
       <c r="X27" t="n">
-        <v>325.3257628566877</v>
+        <v>228.5193669363599</v>
       </c>
       <c r="Y27" t="n">
-        <v>325.3257628566877</v>
+        <v>118.6120146199113</v>
       </c>
     </row>
     <row r="28">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>375.2967860669301</v>
+        <v>8.704662303462726</v>
       </c>
       <c r="C29" t="n">
-        <v>375.2967860669301</v>
+        <v>8.704662303462726</v>
       </c>
       <c r="D29" t="n">
-        <v>265.3894337504815</v>
+        <v>8.704662303462726</v>
       </c>
       <c r="E29" t="n">
-        <v>155.4820814340329</v>
+        <v>8.704662303462726</v>
       </c>
       <c r="F29" t="n">
-        <v>45.57472911758435</v>
+        <v>8.704662303462726</v>
       </c>
       <c r="G29" t="n">
         <v>8.704662303462726</v>
@@ -6466,10 +6466,10 @@
         <v>8.704662303462726</v>
       </c>
       <c r="K29" t="n">
-        <v>9.29965715817138</v>
+        <v>9.299657158171408</v>
       </c>
       <c r="L29" t="n">
-        <v>68.00409268363148</v>
+        <v>68.00409268363151</v>
       </c>
       <c r="M29" t="n">
         <v>175.7242886889827</v>
@@ -6487,28 +6487,28 @@
         <v>375.2967860669301</v>
       </c>
       <c r="R29" t="n">
-        <v>375.2967860669301</v>
+        <v>265.3894337504815</v>
       </c>
       <c r="S29" t="n">
-        <v>375.2967860669301</v>
+        <v>265.3894337504815</v>
       </c>
       <c r="T29" t="n">
-        <v>375.2967860669301</v>
+        <v>265.3894337504815</v>
       </c>
       <c r="U29" t="n">
-        <v>375.2967860669301</v>
+        <v>155.4820814340329</v>
       </c>
       <c r="V29" t="n">
-        <v>375.2967860669301</v>
+        <v>45.57472911758435</v>
       </c>
       <c r="W29" t="n">
-        <v>375.2967860669301</v>
+        <v>45.57472911758435</v>
       </c>
       <c r="X29" t="n">
-        <v>375.2967860669301</v>
+        <v>8.704662303462726</v>
       </c>
       <c r="Y29" t="n">
-        <v>375.2967860669301</v>
+        <v>8.704662303462726</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>215.4184105402392</v>
+        <v>8.704662303462726</v>
       </c>
       <c r="C30" t="n">
-        <v>215.4184105402392</v>
+        <v>8.704662303462726</v>
       </c>
       <c r="D30" t="n">
-        <v>215.4184105402392</v>
+        <v>8.704662303462726</v>
       </c>
       <c r="E30" t="n">
-        <v>215.4184105402392</v>
+        <v>8.704662303462726</v>
       </c>
       <c r="F30" t="n">
-        <v>105.5110582237906</v>
+        <v>8.704662303462726</v>
       </c>
       <c r="G30" t="n">
         <v>8.704662303462726</v>
@@ -6551,13 +6551,13 @@
         <v>116.424858308814</v>
       </c>
       <c r="M30" t="n">
-        <v>224.1450543141652</v>
+        <v>182.2892216373527</v>
       </c>
       <c r="N30" t="n">
-        <v>331.8652503195164</v>
+        <v>250.1052092257282</v>
       </c>
       <c r="O30" t="n">
-        <v>435.2331151731363</v>
+        <v>357.8254052310795</v>
       </c>
       <c r="P30" t="n">
         <v>435.2331151731363</v>
@@ -6572,7 +6572,7 @@
         <v>435.2331151731363</v>
       </c>
       <c r="T30" t="n">
-        <v>325.3257628566877</v>
+        <v>435.2331151731363</v>
       </c>
       <c r="U30" t="n">
         <v>325.3257628566877</v>
@@ -6581,13 +6581,13 @@
         <v>325.3257628566877</v>
       </c>
       <c r="W30" t="n">
-        <v>325.3257628566877</v>
+        <v>215.4184105402392</v>
       </c>
       <c r="X30" t="n">
-        <v>325.3257628566877</v>
+        <v>105.5110582237906</v>
       </c>
       <c r="Y30" t="n">
-        <v>325.3257628566877</v>
+        <v>105.5110582237906</v>
       </c>
     </row>
     <row r="31">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>8.704662303462726</v>
+        <v>155.4820814340329</v>
       </c>
       <c r="C32" t="n">
-        <v>8.704662303462726</v>
+        <v>118.6120146199113</v>
       </c>
       <c r="D32" t="n">
-        <v>8.704662303462726</v>
+        <v>118.6120146199113</v>
       </c>
       <c r="E32" t="n">
         <v>8.704662303462726</v>
@@ -6703,10 +6703,10 @@
         <v>8.704662303462726</v>
       </c>
       <c r="K32" t="n">
-        <v>9.29965715817138</v>
+        <v>9.299657158171408</v>
       </c>
       <c r="L32" t="n">
-        <v>68.00409268363148</v>
+        <v>68.00409268363151</v>
       </c>
       <c r="M32" t="n">
         <v>175.7242886889827</v>
@@ -6724,28 +6724,28 @@
         <v>375.2967860669301</v>
       </c>
       <c r="R32" t="n">
-        <v>375.2967860669301</v>
+        <v>265.3894337504815</v>
       </c>
       <c r="S32" t="n">
-        <v>375.2967860669301</v>
+        <v>265.3894337504815</v>
       </c>
       <c r="T32" t="n">
-        <v>375.2967860669301</v>
+        <v>265.3894337504815</v>
       </c>
       <c r="U32" t="n">
-        <v>375.2967860669301</v>
+        <v>155.4820814340329</v>
       </c>
       <c r="V32" t="n">
-        <v>265.3894337504815</v>
+        <v>155.4820814340329</v>
       </c>
       <c r="W32" t="n">
         <v>155.4820814340329</v>
       </c>
       <c r="X32" t="n">
-        <v>45.57472911758435</v>
+        <v>155.4820814340329</v>
       </c>
       <c r="Y32" t="n">
-        <v>8.704662303462726</v>
+        <v>155.4820814340329</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>192.9877916304998</v>
+        <v>105.5110582237906</v>
       </c>
       <c r="C33" t="n">
-        <v>192.9877916304998</v>
+        <v>105.5110582237906</v>
       </c>
       <c r="D33" t="n">
-        <v>192.9877916304998</v>
+        <v>105.5110582237906</v>
       </c>
       <c r="E33" t="n">
-        <v>192.9877916304998</v>
+        <v>105.5110582237906</v>
       </c>
       <c r="F33" t="n">
-        <v>192.9877916304998</v>
+        <v>105.5110582237906</v>
       </c>
       <c r="G33" t="n">
-        <v>192.9877916304998</v>
+        <v>8.704662303462726</v>
       </c>
       <c r="H33" t="n">
-        <v>118.2219561203545</v>
+        <v>8.704662303462726</v>
       </c>
       <c r="I33" t="n">
         <v>8.704662303462726</v>
@@ -6782,49 +6782,49 @@
         <v>8.704662303462726</v>
       </c>
       <c r="K33" t="n">
-        <v>37.37448422902237</v>
+        <v>8.704662303462726</v>
       </c>
       <c r="L33" t="n">
-        <v>145.0946802343736</v>
+        <v>34.66481721502578</v>
       </c>
       <c r="M33" t="n">
-        <v>252.8148762397248</v>
+        <v>142.385013220377</v>
       </c>
       <c r="N33" t="n">
-        <v>360.535072245076</v>
+        <v>250.1052092257282</v>
       </c>
       <c r="O33" t="n">
-        <v>435.2331151731363</v>
+        <v>357.8254052310795</v>
       </c>
       <c r="P33" t="n">
         <v>435.2331151731363</v>
       </c>
       <c r="Q33" t="n">
-        <v>412.8024962633969</v>
+        <v>435.2331151731363</v>
       </c>
       <c r="R33" t="n">
-        <v>412.8024962633969</v>
+        <v>325.3257628566877</v>
       </c>
       <c r="S33" t="n">
-        <v>412.8024962633969</v>
+        <v>325.3257628566877</v>
       </c>
       <c r="T33" t="n">
-        <v>412.8024962633969</v>
+        <v>325.3257628566877</v>
       </c>
       <c r="U33" t="n">
-        <v>412.8024962633969</v>
+        <v>325.3257628566877</v>
       </c>
       <c r="V33" t="n">
-        <v>412.8024962633969</v>
+        <v>325.3257628566877</v>
       </c>
       <c r="W33" t="n">
-        <v>302.8951439469483</v>
+        <v>215.4184105402392</v>
       </c>
       <c r="X33" t="n">
-        <v>302.8951439469483</v>
+        <v>215.4184105402392</v>
       </c>
       <c r="Y33" t="n">
-        <v>302.8951439469483</v>
+        <v>105.5110582237906</v>
       </c>
     </row>
     <row r="34">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>233.0493520969673</v>
+        <v>85.87435385463846</v>
       </c>
       <c r="C35" t="n">
-        <v>226.3298096866381</v>
+        <v>85.87435385463846</v>
       </c>
       <c r="D35" t="n">
-        <v>226.3298096866381</v>
+        <v>85.87435385463846</v>
       </c>
       <c r="E35" t="n">
-        <v>226.3298096866381</v>
+        <v>85.87435385463846</v>
       </c>
       <c r="F35" t="n">
-        <v>226.3298096866381</v>
+        <v>85.87435385463846</v>
       </c>
       <c r="G35" t="n">
-        <v>147.5366402194431</v>
+        <v>7.081184387443244</v>
       </c>
       <c r="H35" t="n">
-        <v>147.5366402194431</v>
+        <v>7.081184387443244</v>
       </c>
       <c r="I35" t="n">
-        <v>68.74347075224823</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="J35" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="K35" t="n">
-        <v>6.835413876510493</v>
+        <v>6.835413876510543</v>
       </c>
       <c r="L35" t="n">
-        <v>65.5398494019706</v>
+        <v>65.53984940197066</v>
       </c>
       <c r="M35" t="n">
-        <v>142.7650347967684</v>
+        <v>142.7650347967687</v>
       </c>
       <c r="N35" t="n">
-        <v>219.9902201915661</v>
+        <v>219.9902201915667</v>
       </c>
       <c r="O35" t="n">
-        <v>297.2154055863638</v>
+        <v>297.2154055863645</v>
       </c>
       <c r="P35" t="n">
-        <v>311.8425215641622</v>
+        <v>311.8425215641629</v>
       </c>
       <c r="Q35" t="n">
-        <v>311.8425215641622</v>
+        <v>243.4606927890289</v>
       </c>
       <c r="R35" t="n">
-        <v>311.8425215641622</v>
+        <v>243.4606927890289</v>
       </c>
       <c r="S35" t="n">
-        <v>311.8425215641622</v>
+        <v>243.4606927890289</v>
       </c>
       <c r="T35" t="n">
-        <v>311.8425215641622</v>
+        <v>243.4606927890289</v>
       </c>
       <c r="U35" t="n">
-        <v>311.8425215641622</v>
+        <v>164.6675233218337</v>
       </c>
       <c r="V35" t="n">
-        <v>311.8425215641622</v>
+        <v>85.87435385463846</v>
       </c>
       <c r="W35" t="n">
-        <v>311.8425215641622</v>
+        <v>85.87435385463846</v>
       </c>
       <c r="X35" t="n">
-        <v>311.8425215641622</v>
+        <v>85.87435385463846</v>
       </c>
       <c r="Y35" t="n">
-        <v>311.8425215641622</v>
+        <v>85.87435385463846</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>75.64144268850711</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="C36" t="n">
-        <v>64.88170455975948</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="D36" t="n">
-        <v>64.88170455975948</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="E36" t="n">
-        <v>64.88170455975948</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="F36" t="n">
-        <v>64.88170455975948</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="G36" t="n">
-        <v>64.88170455975948</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="H36" t="n">
-        <v>64.88170455975948</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="I36" t="n">
-        <v>64.88170455975948</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="J36" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="K36" t="n">
-        <v>34.91024094736149</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="L36" t="n">
-        <v>112.1354263421592</v>
+        <v>83.46560441659989</v>
       </c>
       <c r="M36" t="n">
-        <v>189.360611736957</v>
+        <v>129.0036911623413</v>
       </c>
       <c r="N36" t="n">
-        <v>257.1765993253325</v>
+        <v>205.2538364586049</v>
       </c>
       <c r="O36" t="n">
-        <v>312.0209510900919</v>
+        <v>234.795765695295</v>
       </c>
       <c r="P36" t="n">
-        <v>312.0209510900919</v>
+        <v>312.020951090093</v>
       </c>
       <c r="Q36" t="n">
-        <v>312.0209510900919</v>
+        <v>312.020951090093</v>
       </c>
       <c r="R36" t="n">
-        <v>312.0209510900919</v>
+        <v>312.020951090093</v>
       </c>
       <c r="S36" t="n">
-        <v>312.0209510900919</v>
+        <v>242.6199274233875</v>
       </c>
       <c r="T36" t="n">
-        <v>312.0209510900919</v>
+        <v>163.8267579561923</v>
       </c>
       <c r="U36" t="n">
-        <v>312.0209510900919</v>
+        <v>85.03358848899707</v>
       </c>
       <c r="V36" t="n">
-        <v>312.0209510900919</v>
+        <v>85.03358848899707</v>
       </c>
       <c r="W36" t="n">
-        <v>233.227781622897</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="X36" t="n">
-        <v>233.227781622897</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="Y36" t="n">
-        <v>154.434612155702</v>
+        <v>6.240419021801861</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="C37" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="D37" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="E37" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="F37" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="G37" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="H37" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="I37" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="J37" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="K37" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="L37" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="M37" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="N37" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="O37" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="P37" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="Q37" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="R37" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="S37" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="T37" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="U37" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="V37" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="W37" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="X37" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="Y37" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6.240419021801838</v>
+        <v>242.6199274233875</v>
       </c>
       <c r="C38" t="n">
-        <v>6.240419021801838</v>
+        <v>163.8267579561923</v>
       </c>
       <c r="D38" t="n">
-        <v>6.240419021801838</v>
+        <v>85.03358848899707</v>
       </c>
       <c r="E38" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="F38" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="G38" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="H38" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="I38" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="J38" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="K38" t="n">
-        <v>6.835413876510493</v>
+        <v>6.835413876510543</v>
       </c>
       <c r="L38" t="n">
-        <v>65.5398494019706</v>
+        <v>65.53984940197066</v>
       </c>
       <c r="M38" t="n">
-        <v>142.7650347967684</v>
+        <v>142.7650347967687</v>
       </c>
       <c r="N38" t="n">
-        <v>219.9902201915661</v>
+        <v>219.9902201915667</v>
       </c>
       <c r="O38" t="n">
-        <v>297.2154055863638</v>
+        <v>297.2154055863645</v>
       </c>
       <c r="P38" t="n">
-        <v>311.8425215641622</v>
+        <v>311.8425215641629</v>
       </c>
       <c r="Q38" t="n">
-        <v>311.8425215641622</v>
+        <v>311.8425215641629</v>
       </c>
       <c r="R38" t="n">
-        <v>233.0493520969673</v>
+        <v>311.8425215641629</v>
       </c>
       <c r="S38" t="n">
-        <v>233.0493520969673</v>
+        <v>311.8425215641629</v>
       </c>
       <c r="T38" t="n">
-        <v>233.0493520969673</v>
+        <v>311.8425215641629</v>
       </c>
       <c r="U38" t="n">
-        <v>233.0493520969673</v>
+        <v>311.8425215641629</v>
       </c>
       <c r="V38" t="n">
-        <v>154.2561826297724</v>
+        <v>311.8425215641629</v>
       </c>
       <c r="W38" t="n">
-        <v>75.46301316257743</v>
+        <v>311.8425215641629</v>
       </c>
       <c r="X38" t="n">
-        <v>6.240419021801838</v>
+        <v>311.8425215641629</v>
       </c>
       <c r="Y38" t="n">
-        <v>6.240419021801838</v>
+        <v>311.8425215641629</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>233.227781622897</v>
+        <v>85.03358848899707</v>
       </c>
       <c r="C39" t="n">
-        <v>154.434612155702</v>
+        <v>85.03358848899707</v>
       </c>
       <c r="D39" t="n">
-        <v>154.434612155702</v>
+        <v>85.03358848899707</v>
       </c>
       <c r="E39" t="n">
-        <v>75.64144268850711</v>
+        <v>85.03358848899707</v>
       </c>
       <c r="F39" t="n">
-        <v>6.240419021801838</v>
+        <v>85.03358848899707</v>
       </c>
       <c r="G39" t="n">
-        <v>6.240419021801838</v>
+        <v>85.03358848899707</v>
       </c>
       <c r="H39" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="I39" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="J39" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="K39" t="n">
-        <v>34.91024094736149</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="L39" t="n">
-        <v>112.1354263421592</v>
+        <v>83.46560441659989</v>
       </c>
       <c r="M39" t="n">
-        <v>157.6735130879006</v>
+        <v>160.6907898113979</v>
       </c>
       <c r="N39" t="n">
-        <v>234.7957656952942</v>
+        <v>234.795765695295</v>
       </c>
       <c r="O39" t="n">
-        <v>312.0209510900919</v>
+        <v>312.020951090093</v>
       </c>
       <c r="P39" t="n">
-        <v>312.0209510900919</v>
+        <v>312.020951090093</v>
       </c>
       <c r="Q39" t="n">
-        <v>312.0209510900919</v>
+        <v>312.020951090093</v>
       </c>
       <c r="R39" t="n">
-        <v>312.0209510900919</v>
+        <v>312.020951090093</v>
       </c>
       <c r="S39" t="n">
-        <v>312.0209510900919</v>
+        <v>312.020951090093</v>
       </c>
       <c r="T39" t="n">
-        <v>312.0209510900919</v>
+        <v>233.2277816228978</v>
       </c>
       <c r="U39" t="n">
-        <v>312.0209510900919</v>
+        <v>154.4346121557026</v>
       </c>
       <c r="V39" t="n">
-        <v>312.0209510900919</v>
+        <v>85.03358848899707</v>
       </c>
       <c r="W39" t="n">
-        <v>233.227781622897</v>
+        <v>85.03358848899707</v>
       </c>
       <c r="X39" t="n">
-        <v>233.227781622897</v>
+        <v>85.03358848899707</v>
       </c>
       <c r="Y39" t="n">
-        <v>233.227781622897</v>
+        <v>85.03358848899707</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="C40" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="D40" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="E40" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="F40" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="G40" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="H40" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="I40" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="J40" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="K40" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="L40" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="M40" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="N40" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="O40" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="P40" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="Q40" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="R40" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="S40" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="T40" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="U40" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="V40" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="W40" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="X40" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
       <c r="Y40" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801861</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>85.03358848899677</v>
+        <v>75.46301316257737</v>
       </c>
       <c r="C41" t="n">
-        <v>85.03358848899677</v>
+        <v>75.46301316257737</v>
       </c>
       <c r="D41" t="n">
-        <v>85.03358848899677</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="E41" t="n">
-        <v>85.03358848899677</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="F41" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="G41" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="H41" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="I41" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="J41" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="K41" t="n">
-        <v>6.835413876510493</v>
+        <v>6.835413876510525</v>
       </c>
       <c r="L41" t="n">
-        <v>65.5398494019706</v>
+        <v>65.53984940197063</v>
       </c>
       <c r="M41" t="n">
         <v>142.7650347967684</v>
       </c>
       <c r="N41" t="n">
-        <v>219.9902201915661</v>
+        <v>219.9902201915662</v>
       </c>
       <c r="O41" t="n">
-        <v>297.2154055863638</v>
+        <v>297.215405586364</v>
       </c>
       <c r="P41" t="n">
-        <v>311.8425215641622</v>
+        <v>311.8425215641623</v>
       </c>
       <c r="Q41" t="n">
-        <v>243.4606927890281</v>
+        <v>311.8425215641623</v>
       </c>
       <c r="R41" t="n">
-        <v>242.6199274233866</v>
+        <v>311.8425215641623</v>
       </c>
       <c r="S41" t="n">
-        <v>242.6199274233866</v>
+        <v>311.8425215641623</v>
       </c>
       <c r="T41" t="n">
-        <v>242.6199274233866</v>
+        <v>233.0493520969673</v>
       </c>
       <c r="U41" t="n">
-        <v>242.6199274233866</v>
+        <v>154.2561826297724</v>
       </c>
       <c r="V41" t="n">
-        <v>242.6199274233866</v>
+        <v>75.46301316257737</v>
       </c>
       <c r="W41" t="n">
-        <v>242.6199274233866</v>
+        <v>75.46301316257737</v>
       </c>
       <c r="X41" t="n">
-        <v>242.6199274233866</v>
+        <v>75.46301316257737</v>
       </c>
       <c r="Y41" t="n">
-        <v>163.8267579561917</v>
+        <v>75.46301316257737</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>85.03358848899677</v>
+        <v>154.4346121557022</v>
       </c>
       <c r="C42" t="n">
-        <v>6.240419021801838</v>
+        <v>154.4346121557022</v>
       </c>
       <c r="D42" t="n">
-        <v>6.240419021801838</v>
+        <v>154.4346121557022</v>
       </c>
       <c r="E42" t="n">
-        <v>6.240419021801838</v>
+        <v>154.4346121557022</v>
       </c>
       <c r="F42" t="n">
-        <v>6.240419021801838</v>
+        <v>85.03358848899683</v>
       </c>
       <c r="G42" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="H42" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="I42" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="J42" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="K42" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="L42" t="n">
-        <v>83.46560441659959</v>
+        <v>83.46560441659965</v>
       </c>
       <c r="M42" t="n">
-        <v>160.6907898113973</v>
+        <v>160.6907898113975</v>
       </c>
       <c r="N42" t="n">
-        <v>234.7957656952942</v>
+        <v>228.506777399773</v>
       </c>
       <c r="O42" t="n">
-        <v>312.0209510900919</v>
+        <v>258.0487066364631</v>
       </c>
       <c r="P42" t="n">
-        <v>312.0209510900919</v>
+        <v>312.0209510900921</v>
       </c>
       <c r="Q42" t="n">
-        <v>312.0209510900919</v>
+        <v>312.0209510900921</v>
       </c>
       <c r="R42" t="n">
-        <v>312.0209510900919</v>
+        <v>312.0209510900921</v>
       </c>
       <c r="S42" t="n">
-        <v>312.0209510900919</v>
+        <v>312.0209510900921</v>
       </c>
       <c r="T42" t="n">
-        <v>312.0209510900919</v>
+        <v>233.2277816228971</v>
       </c>
       <c r="U42" t="n">
-        <v>312.0209510900919</v>
+        <v>154.4346121557022</v>
       </c>
       <c r="V42" t="n">
-        <v>312.0209510900919</v>
+        <v>154.4346121557022</v>
       </c>
       <c r="W42" t="n">
-        <v>233.227781622897</v>
+        <v>154.4346121557022</v>
       </c>
       <c r="X42" t="n">
-        <v>233.227781622897</v>
+        <v>154.4346121557022</v>
       </c>
       <c r="Y42" t="n">
-        <v>154.434612155702</v>
+        <v>154.4346121557022</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="C43" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="D43" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="E43" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="F43" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="G43" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="H43" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="I43" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="J43" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="K43" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="L43" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="M43" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="N43" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="O43" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="P43" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="Q43" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="R43" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="S43" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="T43" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="U43" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="V43" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="W43" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="X43" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="Y43" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>85.87435385463829</v>
+        <v>85.03358848899683</v>
       </c>
       <c r="C44" t="n">
-        <v>85.87435385463829</v>
+        <v>85.03358848899683</v>
       </c>
       <c r="D44" t="n">
-        <v>85.87435385463829</v>
+        <v>85.03358848899683</v>
       </c>
       <c r="E44" t="n">
-        <v>85.87435385463829</v>
+        <v>85.03358848899683</v>
       </c>
       <c r="F44" t="n">
-        <v>85.87435385463829</v>
+        <v>85.03358848899683</v>
       </c>
       <c r="G44" t="n">
-        <v>85.87435385463829</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="H44" t="n">
-        <v>85.87435385463829</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="I44" t="n">
-        <v>7.081184387443358</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="J44" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="K44" t="n">
-        <v>6.835413876510493</v>
+        <v>6.835413876510525</v>
       </c>
       <c r="L44" t="n">
-        <v>65.5398494019706</v>
+        <v>65.53984940197063</v>
       </c>
       <c r="M44" t="n">
         <v>142.7650347967684</v>
       </c>
       <c r="N44" t="n">
-        <v>219.9902201915661</v>
+        <v>219.9902201915662</v>
       </c>
       <c r="O44" t="n">
-        <v>297.2154055863638</v>
+        <v>297.215405586364</v>
       </c>
       <c r="P44" t="n">
-        <v>311.8425215641622</v>
+        <v>311.8425215641623</v>
       </c>
       <c r="Q44" t="n">
-        <v>243.4606927890281</v>
+        <v>311.8425215641623</v>
       </c>
       <c r="R44" t="n">
-        <v>243.4606927890281</v>
+        <v>311.8425215641623</v>
       </c>
       <c r="S44" t="n">
-        <v>243.4606927890281</v>
+        <v>311.8425215641623</v>
       </c>
       <c r="T44" t="n">
-        <v>243.4606927890281</v>
+        <v>233.0493520969673</v>
       </c>
       <c r="U44" t="n">
-        <v>164.6675233218332</v>
+        <v>233.0493520969673</v>
       </c>
       <c r="V44" t="n">
-        <v>85.87435385463829</v>
+        <v>163.8267579561918</v>
       </c>
       <c r="W44" t="n">
-        <v>85.87435385463829</v>
+        <v>163.8267579561918</v>
       </c>
       <c r="X44" t="n">
-        <v>85.87435385463829</v>
+        <v>163.8267579561918</v>
       </c>
       <c r="Y44" t="n">
-        <v>85.87435385463829</v>
+        <v>163.8267579561918</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>154.434612155702</v>
+        <v>242.6199274233868</v>
       </c>
       <c r="C45" t="n">
-        <v>154.434612155702</v>
+        <v>242.6199274233868</v>
       </c>
       <c r="D45" t="n">
-        <v>154.434612155702</v>
+        <v>163.8267579561918</v>
       </c>
       <c r="E45" t="n">
-        <v>154.434612155702</v>
+        <v>163.8267579561918</v>
       </c>
       <c r="F45" t="n">
-        <v>143.6748740269544</v>
+        <v>163.8267579561918</v>
       </c>
       <c r="G45" t="n">
-        <v>143.6748740269544</v>
+        <v>85.03358848899683</v>
       </c>
       <c r="H45" t="n">
-        <v>143.6748740269544</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="I45" t="n">
-        <v>64.88170455975948</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="J45" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="K45" t="n">
-        <v>34.91024094736149</v>
+        <v>34.91024094736152</v>
       </c>
       <c r="L45" t="n">
-        <v>89.75459271212087</v>
+        <v>91.89976212448727</v>
       </c>
       <c r="M45" t="n">
-        <v>166.9797781069186</v>
+        <v>137.4378488702287</v>
       </c>
       <c r="N45" t="n">
-        <v>234.7957656952942</v>
+        <v>205.2538364586042</v>
       </c>
       <c r="O45" t="n">
-        <v>312.0209510900919</v>
+        <v>234.7957656952943</v>
       </c>
       <c r="P45" t="n">
-        <v>312.0209510900919</v>
+        <v>312.0209510900921</v>
       </c>
       <c r="Q45" t="n">
-        <v>312.0209510900919</v>
+        <v>312.0209510900921</v>
       </c>
       <c r="R45" t="n">
-        <v>312.0209510900919</v>
+        <v>312.0209510900921</v>
       </c>
       <c r="S45" t="n">
-        <v>312.0209510900919</v>
+        <v>312.0209510900921</v>
       </c>
       <c r="T45" t="n">
-        <v>312.0209510900919</v>
+        <v>312.0209510900921</v>
       </c>
       <c r="U45" t="n">
-        <v>233.227781622897</v>
+        <v>242.6199274233868</v>
       </c>
       <c r="V45" t="n">
-        <v>233.227781622897</v>
+        <v>242.6199274233868</v>
       </c>
       <c r="W45" t="n">
-        <v>154.434612155702</v>
+        <v>242.6199274233868</v>
       </c>
       <c r="X45" t="n">
-        <v>154.434612155702</v>
+        <v>242.6199274233868</v>
       </c>
       <c r="Y45" t="n">
-        <v>154.434612155702</v>
+        <v>242.6199274233868</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="C46" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="D46" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="E46" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="F46" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="G46" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="H46" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="I46" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="J46" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="K46" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="L46" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="M46" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="N46" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="O46" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="P46" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="Q46" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="R46" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="S46" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="T46" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="U46" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="V46" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="W46" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="X46" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
       <c r="Y46" t="n">
-        <v>6.240419021801838</v>
+        <v>6.240419021801842</v>
       </c>
     </row>
   </sheetData>
@@ -8312,7 +8312,7 @@
         <v>67.58149565199844</v>
       </c>
       <c r="P6" t="n">
-        <v>82.80031984638364</v>
+        <v>82.80031984638366</v>
       </c>
       <c r="Q6" t="n">
         <v>54.62009481132077</v>
@@ -8698,7 +8698,7 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>86.07047768737536</v>
+        <v>86.07047768737542</v>
       </c>
       <c r="N11" t="n">
         <v>79.38512841423423</v>
@@ -8771,19 +8771,19 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>39.80154553684656</v>
+        <v>39.80154553684653</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>23.44674686600962</v>
+        <v>32.00717035258222</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>48.16490521020975</v>
+        <v>39.60448172363721</v>
       </c>
       <c r="P12" t="n">
         <v>82.61595161682908</v>
@@ -8935,7 +8935,7 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>86.07047768737536</v>
+        <v>86.07047768737542</v>
       </c>
       <c r="N14" t="n">
         <v>79.38512841423423</v>
@@ -9008,22 +9008,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>39.80154553684656</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L15" t="n">
-        <v>23.44674686600963</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>32.00717035258222</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>9.504240208507326</v>
       </c>
       <c r="O15" t="n">
-        <v>48.16490521020975</v>
+        <v>48.16490521020978</v>
       </c>
       <c r="P15" t="n">
-        <v>82.61595161682908</v>
+        <v>35.59187183532529</v>
       </c>
       <c r="Q15" t="n">
         <v>54.62009481132077</v>
@@ -9172,7 +9172,7 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>86.07047768737536</v>
+        <v>86.07047768737542</v>
       </c>
       <c r="N17" t="n">
         <v>79.38512841423423</v>
@@ -9245,22 +9245,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>39.80154553684656</v>
+        <v>39.80154553684653</v>
       </c>
       <c r="L18" t="n">
-        <v>63.09230085613092</v>
+        <v>63.09230085613095</v>
       </c>
       <c r="M18" t="n">
-        <v>32.00717035258219</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>8.519351220088495</v>
       </c>
       <c r="P18" t="n">
-        <v>59.12813248433532</v>
+        <v>82.61595161682908</v>
       </c>
       <c r="Q18" t="n">
         <v>54.62009481132077</v>
@@ -9409,7 +9409,7 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>86.07047768737536</v>
+        <v>86.07047768737542</v>
       </c>
       <c r="N20" t="n">
         <v>79.38512841423423</v>
@@ -9485,19 +9485,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L21" t="n">
-        <v>63.09230085613092</v>
+        <v>42.65223598979554</v>
       </c>
       <c r="M21" t="n">
-        <v>9.400267695977789</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>48.16490521020975</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>4.610713844306076</v>
+        <v>82.61595161682908</v>
       </c>
       <c r="Q21" t="n">
         <v>54.62009481132077</v>
@@ -9719,22 +9719,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>68.76096162327045</v>
+        <v>39.80154553684653</v>
       </c>
       <c r="L24" t="n">
-        <v>93.89534187689202</v>
+        <v>11.30944178215645</v>
       </c>
       <c r="M24" t="n">
-        <v>62.81021137334329</v>
+        <v>62.81021137334326</v>
       </c>
       <c r="N24" t="n">
         <v>40.30728122926837</v>
       </c>
       <c r="O24" t="n">
-        <v>45.61223605188906</v>
+        <v>78.96794623097082</v>
       </c>
       <c r="P24" t="n">
-        <v>4.610713844306076</v>
+        <v>82.80031984638366</v>
       </c>
       <c r="Q24" t="n">
         <v>54.62009481132077</v>
@@ -9956,22 +9956,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>68.76096162327045</v>
+        <v>39.80154553684653</v>
       </c>
       <c r="L27" t="n">
-        <v>93.89534187689202</v>
+        <v>93.89534187689199</v>
       </c>
       <c r="M27" t="n">
-        <v>29.4545011942615</v>
+        <v>20.53159250787608</v>
       </c>
       <c r="N27" t="n">
-        <v>40.30728122926837</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>78.96794623097085</v>
+        <v>78.96794623097082</v>
       </c>
       <c r="P27" t="n">
-        <v>4.610713844306076</v>
+        <v>82.80031984638366</v>
       </c>
       <c r="Q27" t="n">
         <v>54.62009481132077</v>
@@ -10193,22 +10193,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>39.80154553684656</v>
+        <v>39.80154553684653</v>
       </c>
       <c r="L30" t="n">
-        <v>93.89534187689202</v>
+        <v>93.89534187689199</v>
       </c>
       <c r="M30" t="n">
-        <v>62.81021137334329</v>
+        <v>20.53159250787608</v>
       </c>
       <c r="N30" t="n">
-        <v>40.30728122926837</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>74.57165213831293</v>
+        <v>78.96794623097082</v>
       </c>
       <c r="P30" t="n">
-        <v>4.610713844306076</v>
+        <v>82.80031984638366</v>
       </c>
       <c r="Q30" t="n">
         <v>54.62009481132077</v>
@@ -10430,22 +10430,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>68.76096162327045</v>
+        <v>39.80154553684653</v>
       </c>
       <c r="L33" t="n">
-        <v>93.89534187689202</v>
+        <v>11.30944178215645</v>
       </c>
       <c r="M33" t="n">
-        <v>62.81021137334329</v>
+        <v>62.81021137334326</v>
       </c>
       <c r="N33" t="n">
         <v>40.30728122926837</v>
       </c>
       <c r="O33" t="n">
-        <v>45.61223605188906</v>
+        <v>78.96794623097082</v>
       </c>
       <c r="P33" t="n">
-        <v>4.610713844306076</v>
+        <v>82.80031984638366</v>
       </c>
       <c r="Q33" t="n">
         <v>54.62009481132077</v>
@@ -10594,10 +10594,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>86.07047768737536</v>
+        <v>86.07047768737564</v>
       </c>
       <c r="N35" t="n">
-        <v>79.38512841423423</v>
+        <v>79.38512841423446</v>
       </c>
       <c r="O35" t="n">
         <v>99.00804712831379</v>
@@ -10667,22 +10667,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>68.76096162327045</v>
+        <v>39.80154553684653</v>
       </c>
       <c r="L36" t="n">
-        <v>63.09230085613092</v>
+        <v>63.09230085613117</v>
       </c>
       <c r="M36" t="n">
-        <v>32.00717035258219</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>8.51935122008895</v>
       </c>
       <c r="O36" t="n">
-        <v>25.55800255360535</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>4.610713844306076</v>
+        <v>82.61595161682931</v>
       </c>
       <c r="Q36" t="n">
         <v>54.62009481132077</v>
@@ -10831,10 +10831,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>86.07047768737536</v>
+        <v>86.07047768737564</v>
       </c>
       <c r="N38" t="n">
-        <v>79.38512841423423</v>
+        <v>79.38512841423446</v>
       </c>
       <c r="O38" t="n">
         <v>99.00804712831379</v>
@@ -10904,19 +10904,19 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>68.76096162327045</v>
+        <v>39.80154553684653</v>
       </c>
       <c r="L39" t="n">
-        <v>63.09230085613092</v>
+        <v>63.09230085613117</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>32.00717035258245</v>
       </c>
       <c r="N39" t="n">
-        <v>9.400267695977789</v>
+        <v>6.352513429819766</v>
       </c>
       <c r="O39" t="n">
-        <v>48.16490521020975</v>
+        <v>48.16490521021001</v>
       </c>
       <c r="P39" t="n">
         <v>4.610713844306076</v>
@@ -11068,7 +11068,7 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>86.07047768737536</v>
+        <v>86.07047768737542</v>
       </c>
       <c r="N41" t="n">
         <v>79.38512841423423</v>
@@ -11141,22 +11141,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>39.80154553684656</v>
+        <v>39.80154553684653</v>
       </c>
       <c r="L42" t="n">
-        <v>63.09230085613092</v>
+        <v>63.09230085613095</v>
       </c>
       <c r="M42" t="n">
-        <v>32.00717035258219</v>
+        <v>32.00717035258222</v>
       </c>
       <c r="N42" t="n">
-        <v>6.352513429819481</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>48.16490521020975</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>4.610713844306076</v>
+        <v>59.12813248433537</v>
       </c>
       <c r="Q42" t="n">
         <v>54.62009481132077</v>
@@ -11305,7 +11305,7 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>86.07047768737536</v>
+        <v>86.07047768737542</v>
       </c>
       <c r="N44" t="n">
         <v>79.38512841423423</v>
@@ -11381,19 +11381,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L45" t="n">
-        <v>40.48539819952651</v>
+        <v>42.65223598979554</v>
       </c>
       <c r="M45" t="n">
-        <v>32.00717035258219</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>48.16490521020975</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>4.610713844306076</v>
+        <v>82.61595161682908</v>
       </c>
       <c r="Q45" t="n">
         <v>54.62009481132077</v>
@@ -23263,25 +23263,25 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D11" t="n">
-        <v>319.1317556432476</v>
+        <v>250.6013874438798</v>
       </c>
       <c r="E11" t="n">
         <v>359.9585549362873</v>
       </c>
       <c r="F11" t="n">
-        <v>399.146417573369</v>
+        <v>321.141179800846</v>
       </c>
       <c r="G11" t="n">
-        <v>421.7175990706918</v>
+        <v>343.7123612981687</v>
       </c>
       <c r="H11" t="n">
         <v>344.918433361933</v>
       </c>
       <c r="I11" t="n">
-        <v>218.4762977223611</v>
+        <v>235.4358719937273</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>61.87802121314189</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,13 +23302,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>67.69801048738267</v>
       </c>
       <c r="R11" t="n">
-        <v>102.5712187737736</v>
+        <v>180.5764565462965</v>
       </c>
       <c r="S11" t="n">
-        <v>146.7121269736776</v>
+        <v>224.7173647462005</v>
       </c>
       <c r="T11" t="n">
         <v>217.3169933574058</v>
@@ -23317,7 +23317,7 @@
         <v>248.7517957364543</v>
       </c>
       <c r="V11" t="n">
-        <v>313.3044420010231</v>
+        <v>235.2992042285001</v>
       </c>
       <c r="W11" t="n">
         <v>325.3917254792934</v>
@@ -23348,19 +23348,19 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F12" t="n">
-        <v>163.3322073778638</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>82.76201674614128</v>
+        <v>92.06024108862599</v>
       </c>
       <c r="H12" t="n">
-        <v>57.35274338937725</v>
+        <v>135.3579811619002</v>
       </c>
       <c r="I12" t="n">
-        <v>30.41688310619983</v>
+        <v>108.4221208787228</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>58.05487268257805</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23381,13 +23381,13 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.20631272064202</v>
+        <v>22.206312720642</v>
       </c>
       <c r="R12" t="n">
-        <v>139.0123858214999</v>
+        <v>61.00714804897683</v>
       </c>
       <c r="S12" t="n">
-        <v>203.4213577583714</v>
+        <v>125.4161199858484</v>
       </c>
       <c r="T12" t="n">
         <v>229.0968424055386</v>
@@ -23399,7 +23399,7 @@
         <v>249.2999251801724</v>
       </c>
       <c r="W12" t="n">
-        <v>283.2492567629311</v>
+        <v>205.2440189904081</v>
       </c>
       <c r="X12" t="n">
         <v>230.033063710963</v>
@@ -23439,13 +23439,13 @@
         <v>161.4902352246459</v>
       </c>
       <c r="J13" t="n">
-        <v>117.5978061759027</v>
+        <v>117.5978061759026</v>
       </c>
       <c r="K13" t="n">
-        <v>63.33648206393785</v>
+        <v>63.33648206393784</v>
       </c>
       <c r="L13" t="n">
-        <v>30.14121960611614</v>
+        <v>30.14121960611612</v>
       </c>
       <c r="M13" t="n">
         <v>25.09357144955206</v>
@@ -23454,16 +23454,16 @@
         <v>13.52551334516536</v>
       </c>
       <c r="O13" t="n">
-        <v>41.37252221395666</v>
+        <v>41.37252221395664</v>
       </c>
       <c r="P13" t="n">
-        <v>64.73204479399234</v>
+        <v>64.73204479399233</v>
       </c>
       <c r="Q13" t="n">
         <v>134.2488536926202</v>
       </c>
       <c r="R13" t="n">
-        <v>211.7157157501224</v>
+        <v>211.7157157501223</v>
       </c>
       <c r="S13" t="n">
         <v>240.0728286205131</v>
@@ -23506,19 +23506,19 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F14" t="n">
-        <v>392.4940705871431</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>343.7123612981688</v>
+        <v>421.7175990706918</v>
       </c>
       <c r="H14" t="n">
-        <v>266.9131955894101</v>
+        <v>344.918433361933</v>
       </c>
       <c r="I14" t="n">
-        <v>157.4306342212043</v>
+        <v>235.4358719937273</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>61.04566350115679</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>67.6980104873827</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>180.5764565462965</v>
@@ -23551,10 +23551,10 @@
         <v>217.3169933574058</v>
       </c>
       <c r="U14" t="n">
-        <v>248.7517957364543</v>
+        <v>170.7465579639313</v>
       </c>
       <c r="V14" t="n">
-        <v>313.3044420010231</v>
+        <v>235.2992042285001</v>
       </c>
       <c r="W14" t="n">
         <v>325.3917254792934</v>
@@ -23563,7 +23563,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y14" t="n">
-        <v>377.9289763951821</v>
+        <v>299.9237386226591</v>
       </c>
     </row>
     <row r="15">
@@ -23582,22 +23582,22 @@
         <v>172.0989423795122</v>
       </c>
       <c r="E15" t="n">
-        <v>187.4605452976028</v>
+        <v>118.7535318675646</v>
       </c>
       <c r="F15" t="n">
-        <v>173.9843481253239</v>
+        <v>95.97911035280089</v>
       </c>
       <c r="G15" t="n">
-        <v>160.7672545186643</v>
+        <v>82.76201674614123</v>
       </c>
       <c r="H15" t="n">
         <v>135.3579811619002</v>
       </c>
       <c r="I15" t="n">
-        <v>30.41688310619983</v>
+        <v>108.4221208787228</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>58.05487268257805</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23618,16 +23618,16 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.20631272064202</v>
+        <v>22.206312720642</v>
       </c>
       <c r="R15" t="n">
-        <v>61.00714804897689</v>
+        <v>139.0123858214999</v>
       </c>
       <c r="S15" t="n">
-        <v>125.4161199858484</v>
+        <v>203.4213577583714</v>
       </c>
       <c r="T15" t="n">
-        <v>218.4447016580784</v>
+        <v>229.0968424055386</v>
       </c>
       <c r="U15" t="n">
         <v>249.633257640348</v>
@@ -23636,7 +23636,7 @@
         <v>249.2999251801724</v>
       </c>
       <c r="W15" t="n">
-        <v>283.2492567629311</v>
+        <v>205.2440189904081</v>
       </c>
       <c r="X15" t="n">
         <v>230.033063710963</v>
@@ -23676,13 +23676,13 @@
         <v>161.4902352246459</v>
       </c>
       <c r="J16" t="n">
-        <v>117.5978061759027</v>
+        <v>117.5978061759026</v>
       </c>
       <c r="K16" t="n">
-        <v>63.33648206393785</v>
+        <v>63.33648206393784</v>
       </c>
       <c r="L16" t="n">
-        <v>30.14121960611614</v>
+        <v>30.14121960611612</v>
       </c>
       <c r="M16" t="n">
         <v>25.09357144955206</v>
@@ -23691,16 +23691,16 @@
         <v>13.52551334516536</v>
       </c>
       <c r="O16" t="n">
-        <v>41.37252221395666</v>
+        <v>41.37252221395664</v>
       </c>
       <c r="P16" t="n">
-        <v>64.73204479399234</v>
+        <v>64.73204479399233</v>
       </c>
       <c r="Q16" t="n">
         <v>134.2488536926202</v>
       </c>
       <c r="R16" t="n">
-        <v>211.7157157501224</v>
+        <v>211.7157157501223</v>
       </c>
       <c r="S16" t="n">
         <v>240.0728286205131</v>
@@ -23743,19 +23743,19 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F17" t="n">
-        <v>392.4940705871431</v>
+        <v>321.141179800846</v>
       </c>
       <c r="G17" t="n">
-        <v>343.7123612981688</v>
+        <v>421.7175990706918</v>
       </c>
       <c r="H17" t="n">
-        <v>266.9131955894101</v>
+        <v>344.918433361933</v>
       </c>
       <c r="I17" t="n">
-        <v>157.4306342212043</v>
+        <v>235.4358719937273</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>61.87802121314189</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>67.6980104873827</v>
+        <v>67.69801048738267</v>
       </c>
       <c r="R17" t="n">
         <v>180.5764565462965</v>
@@ -23788,7 +23788,7 @@
         <v>217.3169933574058</v>
       </c>
       <c r="U17" t="n">
-        <v>248.7517957364543</v>
+        <v>180.2214275370866</v>
       </c>
       <c r="V17" t="n">
         <v>313.3044420010231</v>
@@ -23797,10 +23797,10 @@
         <v>325.3917254792934</v>
       </c>
       <c r="X17" t="n">
-        <v>348.8168793035129</v>
+        <v>270.8116415309898</v>
       </c>
       <c r="Y17" t="n">
-        <v>377.9289763951821</v>
+        <v>299.9237386226591</v>
       </c>
     </row>
     <row r="18">
@@ -23822,19 +23822,19 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F18" t="n">
-        <v>163.3322073778638</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>82.76201674614128</v>
+        <v>82.76201674614123</v>
       </c>
       <c r="H18" t="n">
-        <v>57.35274338937725</v>
+        <v>135.3579811619002</v>
       </c>
       <c r="I18" t="n">
-        <v>30.41688310619983</v>
+        <v>108.4221208787228</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>58.05487268257805</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23855,16 +23855,16 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.20631272064202</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>139.0123858214999</v>
+        <v>61.00714804897683</v>
       </c>
       <c r="S18" t="n">
-        <v>203.4213577583714</v>
+        <v>125.4161199858484</v>
       </c>
       <c r="T18" t="n">
-        <v>229.0968424055386</v>
+        <v>182.5961416961424</v>
       </c>
       <c r="U18" t="n">
         <v>249.633257640348</v>
@@ -23913,13 +23913,13 @@
         <v>161.4902352246459</v>
       </c>
       <c r="J19" t="n">
-        <v>117.5978061759027</v>
+        <v>117.5978061759026</v>
       </c>
       <c r="K19" t="n">
-        <v>63.33648206393785</v>
+        <v>63.33648206393784</v>
       </c>
       <c r="L19" t="n">
-        <v>30.14121960611614</v>
+        <v>30.14121960611612</v>
       </c>
       <c r="M19" t="n">
         <v>25.09357144955206</v>
@@ -23928,16 +23928,16 @@
         <v>13.52551334516536</v>
       </c>
       <c r="O19" t="n">
-        <v>41.37252221395666</v>
+        <v>41.37252221395664</v>
       </c>
       <c r="P19" t="n">
-        <v>64.73204479399234</v>
+        <v>64.73204479399233</v>
       </c>
       <c r="Q19" t="n">
         <v>134.2488536926202</v>
       </c>
       <c r="R19" t="n">
-        <v>211.7157157501224</v>
+        <v>211.7157157501223</v>
       </c>
       <c r="S19" t="n">
         <v>240.0728286205131</v>
@@ -23977,13 +23977,13 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E20" t="n">
-        <v>281.9533171637644</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F20" t="n">
-        <v>321.1411798008461</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G20" t="n">
-        <v>353.1872308713239</v>
+        <v>343.7123612981687</v>
       </c>
       <c r="H20" t="n">
         <v>344.918433361933</v>
@@ -23992,7 +23992,7 @@
         <v>235.4358719937273</v>
       </c>
       <c r="J20" t="n">
-        <v>61.87802121314192</v>
+        <v>61.87802121314189</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,10 +24013,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>67.6980104873827</v>
+        <v>67.69801048738267</v>
       </c>
       <c r="R20" t="n">
-        <v>102.5712187737736</v>
+        <v>180.5764565462965</v>
       </c>
       <c r="S20" t="n">
         <v>224.7173647462005</v>
@@ -24025,13 +24025,13 @@
         <v>217.3169933574058</v>
       </c>
       <c r="U20" t="n">
-        <v>248.7517957364543</v>
+        <v>170.7465579639313</v>
       </c>
       <c r="V20" t="n">
-        <v>313.3044420010231</v>
+        <v>235.2992042285001</v>
       </c>
       <c r="W20" t="n">
-        <v>325.3917254792934</v>
+        <v>256.8613572799256</v>
       </c>
       <c r="X20" t="n">
         <v>348.8168793035129</v>
@@ -24071,7 +24071,7 @@
         <v>108.4221208787228</v>
       </c>
       <c r="J21" t="n">
-        <v>58.05487268257806</v>
+        <v>58.05487268257805</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24092,7 +24092,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>22.206312720642</v>
       </c>
       <c r="R21" t="n">
         <v>139.0123858214999</v>
@@ -24101,22 +24101,22 @@
         <v>125.4161199858484</v>
       </c>
       <c r="T21" t="n">
-        <v>151.0916046330156</v>
+        <v>160.3898289755003</v>
       </c>
       <c r="U21" t="n">
-        <v>249.633257640348</v>
+        <v>171.6280198678249</v>
       </c>
       <c r="V21" t="n">
-        <v>171.2946874076494</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W21" t="n">
-        <v>283.2492567629311</v>
+        <v>205.2440189904081</v>
       </c>
       <c r="X21" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y21" t="n">
-        <v>196.3955657041971</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="22">
@@ -24150,13 +24150,13 @@
         <v>161.4902352246459</v>
       </c>
       <c r="J22" t="n">
-        <v>117.5978061759027</v>
+        <v>117.5978061759026</v>
       </c>
       <c r="K22" t="n">
-        <v>63.33648206393785</v>
+        <v>63.33648206393784</v>
       </c>
       <c r="L22" t="n">
-        <v>30.14121960611614</v>
+        <v>30.14121960611612</v>
       </c>
       <c r="M22" t="n">
         <v>25.09357144955206</v>
@@ -24165,16 +24165,16 @@
         <v>13.52551334516536</v>
       </c>
       <c r="O22" t="n">
-        <v>41.37252221395666</v>
+        <v>41.37252221395664</v>
       </c>
       <c r="P22" t="n">
-        <v>64.73204479399234</v>
+        <v>64.73204479399233</v>
       </c>
       <c r="Q22" t="n">
         <v>134.2488536926202</v>
       </c>
       <c r="R22" t="n">
-        <v>211.7157157501224</v>
+        <v>211.7157157501223</v>
       </c>
       <c r="S22" t="n">
         <v>240.0728286205131</v>
@@ -24208,7 +24208,7 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C23" t="n">
-        <v>333.5971194742085</v>
+        <v>224.7888406809244</v>
       </c>
       <c r="D23" t="n">
         <v>319.1317556432476</v>
@@ -24223,13 +24223,13 @@
         <v>421.7175990706918</v>
       </c>
       <c r="H23" t="n">
-        <v>308.4170672159526</v>
+        <v>344.918433361933</v>
       </c>
       <c r="I23" t="n">
-        <v>126.6275932004432</v>
+        <v>235.4358719937273</v>
       </c>
       <c r="J23" t="n">
-        <v>61.87802121314192</v>
+        <v>61.87802121314189</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>67.6980104873827</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>180.5764565462965</v>
@@ -24265,7 +24265,7 @@
         <v>248.7517957364543</v>
       </c>
       <c r="V23" t="n">
-        <v>313.3044420010231</v>
+        <v>235.6928075491413</v>
       </c>
       <c r="W23" t="n">
         <v>216.5834466860093</v>
@@ -24274,7 +24274,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y23" t="n">
-        <v>269.1206976018981</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="24">
@@ -24305,10 +24305,10 @@
         <v>135.3579811619002</v>
       </c>
       <c r="I24" t="n">
-        <v>12.58378891759823</v>
+        <v>108.4221208787228</v>
       </c>
       <c r="J24" t="n">
-        <v>58.05487268257806</v>
+        <v>58.05487268257805</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24329,7 +24329,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.20631272064202</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>139.0123858214999</v>
@@ -24341,19 +24341,19 @@
         <v>229.0968424055386</v>
       </c>
       <c r="U24" t="n">
-        <v>249.633257640348</v>
+        <v>140.8249788470639</v>
       </c>
       <c r="V24" t="n">
-        <v>249.2999251801724</v>
+        <v>140.4916463868883</v>
       </c>
       <c r="W24" t="n">
         <v>174.440977969647</v>
       </c>
       <c r="X24" t="n">
-        <v>121.2247849176789</v>
+        <v>156.4010444704804</v>
       </c>
       <c r="Y24" t="n">
-        <v>134.0879876203093</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="25">
@@ -24387,13 +24387,13 @@
         <v>161.4902352246459</v>
       </c>
       <c r="J25" t="n">
-        <v>117.5978061759027</v>
+        <v>117.5978061759026</v>
       </c>
       <c r="K25" t="n">
-        <v>63.33648206393785</v>
+        <v>63.33648206393784</v>
       </c>
       <c r="L25" t="n">
-        <v>30.14121960611614</v>
+        <v>30.14121960611612</v>
       </c>
       <c r="M25" t="n">
         <v>25.09357144955206</v>
@@ -24402,16 +24402,16 @@
         <v>13.52551334516536</v>
       </c>
       <c r="O25" t="n">
-        <v>41.37252221395666</v>
+        <v>41.37252221395664</v>
       </c>
       <c r="P25" t="n">
-        <v>64.73204479399234</v>
+        <v>64.73204479399233</v>
       </c>
       <c r="Q25" t="n">
         <v>134.2488536926202</v>
       </c>
       <c r="R25" t="n">
-        <v>211.7157157501224</v>
+        <v>211.7157157501223</v>
       </c>
       <c r="S25" t="n">
         <v>240.0728286205131</v>
@@ -24445,7 +24445,7 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C26" t="n">
-        <v>333.5971194742085</v>
+        <v>224.7888406809244</v>
       </c>
       <c r="D26" t="n">
         <v>319.1317556432476</v>
@@ -24454,7 +24454,7 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F26" t="n">
-        <v>321.5347831214873</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G26" t="n">
         <v>421.7175990706918</v>
@@ -24466,7 +24466,7 @@
         <v>235.4358719937273</v>
       </c>
       <c r="J26" t="n">
-        <v>61.87802121314192</v>
+        <v>61.87802121314189</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24490,22 +24490,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>71.76817775301245</v>
+        <v>180.5764565462965</v>
       </c>
       <c r="S26" t="n">
-        <v>115.9090859529165</v>
+        <v>224.7173647462005</v>
       </c>
       <c r="T26" t="n">
         <v>217.3169933574058</v>
       </c>
       <c r="U26" t="n">
-        <v>248.7517957364543</v>
+        <v>171.1401612845725</v>
       </c>
       <c r="V26" t="n">
         <v>313.3044420010231</v>
       </c>
       <c r="W26" t="n">
-        <v>325.3917254792934</v>
+        <v>216.5834466860093</v>
       </c>
       <c r="X26" t="n">
         <v>348.8168793035129</v>
@@ -24530,7 +24530,7 @@
         <v>172.0989423795122</v>
       </c>
       <c r="E27" t="n">
-        <v>78.65226650431876</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F27" t="n">
         <v>173.9843481253239</v>
@@ -24539,13 +24539,13 @@
         <v>51.95897572538018</v>
       </c>
       <c r="H27" t="n">
-        <v>39.51964920077565</v>
+        <v>135.3579811619002</v>
       </c>
       <c r="I27" t="n">
         <v>108.4221208787228</v>
       </c>
       <c r="J27" t="n">
-        <v>58.05487268257806</v>
+        <v>58.05487268257805</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24566,7 +24566,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.20631272064202</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>139.0123858214999</v>
@@ -24575,13 +24575,13 @@
         <v>203.4213577583714</v>
       </c>
       <c r="T27" t="n">
-        <v>229.0968424055386</v>
+        <v>120.2885636122545</v>
       </c>
       <c r="U27" t="n">
-        <v>249.633257640348</v>
+        <v>176.0012383998654</v>
       </c>
       <c r="V27" t="n">
-        <v>140.4916463868883</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W27" t="n">
         <v>283.2492567629311</v>
@@ -24590,7 +24590,7 @@
         <v>230.033063710963</v>
       </c>
       <c r="Y27" t="n">
-        <v>242.8962664135933</v>
+        <v>134.0879876203093</v>
       </c>
     </row>
     <row r="28">
@@ -24624,13 +24624,13 @@
         <v>161.4902352246459</v>
       </c>
       <c r="J28" t="n">
-        <v>117.5978061759027</v>
+        <v>117.5978061759026</v>
       </c>
       <c r="K28" t="n">
-        <v>63.33648206393785</v>
+        <v>63.33648206393784</v>
       </c>
       <c r="L28" t="n">
-        <v>30.14121960611614</v>
+        <v>30.14121960611612</v>
       </c>
       <c r="M28" t="n">
         <v>25.09357144955206</v>
@@ -24639,16 +24639,16 @@
         <v>13.52551334516536</v>
       </c>
       <c r="O28" t="n">
-        <v>41.37252221395666</v>
+        <v>41.37252221395664</v>
       </c>
       <c r="P28" t="n">
-        <v>64.73204479399234</v>
+        <v>64.73204479399233</v>
       </c>
       <c r="Q28" t="n">
         <v>134.2488536926202</v>
       </c>
       <c r="R28" t="n">
-        <v>211.7157157501224</v>
+        <v>211.7157157501223</v>
       </c>
       <c r="S28" t="n">
         <v>240.0728286205131</v>
@@ -24685,16 +24685,16 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D29" t="n">
-        <v>210.3234768499636</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E29" t="n">
-        <v>251.1502761430033</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F29" t="n">
-        <v>290.3381387800849</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G29" t="n">
-        <v>385.2162329247114</v>
+        <v>421.7175990706918</v>
       </c>
       <c r="H29" t="n">
         <v>344.918433361933</v>
@@ -24703,7 +24703,7 @@
         <v>235.4358719937273</v>
       </c>
       <c r="J29" t="n">
-        <v>61.87802121314192</v>
+        <v>61.87802121314189</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,10 +24724,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>67.6980104873827</v>
+        <v>67.69801048738267</v>
       </c>
       <c r="R29" t="n">
-        <v>180.5764565462965</v>
+        <v>71.76817775301242</v>
       </c>
       <c r="S29" t="n">
         <v>224.7173647462005</v>
@@ -24736,16 +24736,16 @@
         <v>217.3169933574058</v>
       </c>
       <c r="U29" t="n">
-        <v>248.7517957364543</v>
+        <v>139.9435169431703</v>
       </c>
       <c r="V29" t="n">
-        <v>313.3044420010231</v>
+        <v>204.496163207739</v>
       </c>
       <c r="W29" t="n">
         <v>325.3917254792934</v>
       </c>
       <c r="X29" t="n">
-        <v>348.8168793035129</v>
+        <v>312.3155131575325</v>
       </c>
       <c r="Y29" t="n">
         <v>377.9289763951821</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>79.20447858775037</v>
+        <v>92.17442541990987</v>
       </c>
       <c r="C30" t="n">
         <v>203.8424276152394</v>
@@ -24770,10 +24770,10 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F30" t="n">
-        <v>65.17606933203984</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>64.92892255753968</v>
+        <v>160.7672545186643</v>
       </c>
       <c r="H30" t="n">
         <v>135.3579811619002</v>
@@ -24782,7 +24782,7 @@
         <v>108.4221208787228</v>
       </c>
       <c r="J30" t="n">
-        <v>58.05487268257806</v>
+        <v>58.05487268257805</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24803,7 +24803,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.20631272064202</v>
+        <v>22.206312720642</v>
       </c>
       <c r="R30" t="n">
         <v>139.0123858214999</v>
@@ -24812,19 +24812,19 @@
         <v>203.4213577583714</v>
       </c>
       <c r="T30" t="n">
-        <v>120.2885636122545</v>
+        <v>229.0968424055386</v>
       </c>
       <c r="U30" t="n">
-        <v>249.633257640348</v>
+        <v>140.8249788470639</v>
       </c>
       <c r="V30" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W30" t="n">
-        <v>283.2492567629311</v>
+        <v>174.440977969647</v>
       </c>
       <c r="X30" t="n">
-        <v>230.033063710963</v>
+        <v>121.2247849176789</v>
       </c>
       <c r="Y30" t="n">
         <v>242.8962664135933</v>
@@ -24861,13 +24861,13 @@
         <v>161.4902352246459</v>
       </c>
       <c r="J31" t="n">
-        <v>117.5978061759027</v>
+        <v>117.5978061759026</v>
       </c>
       <c r="K31" t="n">
-        <v>63.33648206393785</v>
+        <v>63.33648206393784</v>
       </c>
       <c r="L31" t="n">
-        <v>30.14121960611614</v>
+        <v>30.14121960611612</v>
       </c>
       <c r="M31" t="n">
         <v>25.09357144955206</v>
@@ -24876,16 +24876,16 @@
         <v>13.52551334516536</v>
       </c>
       <c r="O31" t="n">
-        <v>41.37252221395666</v>
+        <v>41.37252221395664</v>
       </c>
       <c r="P31" t="n">
-        <v>64.73204479399234</v>
+        <v>64.73204479399233</v>
       </c>
       <c r="Q31" t="n">
         <v>134.2488536926202</v>
       </c>
       <c r="R31" t="n">
-        <v>211.7157157501224</v>
+        <v>211.7157157501223</v>
       </c>
       <c r="S31" t="n">
         <v>240.0728286205131</v>
@@ -24919,13 +24919,13 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C32" t="n">
-        <v>333.5971194742085</v>
+        <v>297.0957533282281</v>
       </c>
       <c r="D32" t="n">
         <v>319.1317556432476</v>
       </c>
       <c r="E32" t="n">
-        <v>359.9585549362873</v>
+        <v>251.1502761430033</v>
       </c>
       <c r="F32" t="n">
         <v>399.146417573369</v>
@@ -24940,7 +24940,7 @@
         <v>235.4358719937273</v>
       </c>
       <c r="J32" t="n">
-        <v>61.87802121314192</v>
+        <v>61.87802121314189</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,10 +24961,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>67.6980104873827</v>
+        <v>67.69801048738267</v>
       </c>
       <c r="R32" t="n">
-        <v>180.5764565462965</v>
+        <v>71.76817775301242</v>
       </c>
       <c r="S32" t="n">
         <v>224.7173647462005</v>
@@ -24973,19 +24973,19 @@
         <v>217.3169933574058</v>
       </c>
       <c r="U32" t="n">
-        <v>248.7517957364543</v>
+        <v>139.9435169431703</v>
       </c>
       <c r="V32" t="n">
-        <v>204.496163207739</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W32" t="n">
-        <v>216.5834466860093</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X32" t="n">
-        <v>240.0086005102288</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y32" t="n">
-        <v>341.4276102492017</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="33">
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>79.20447858775037</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C33" t="n">
         <v>203.8424276152394</v>
@@ -25010,16 +25010,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G33" t="n">
-        <v>160.7672545186643</v>
+        <v>64.92892255753968</v>
       </c>
       <c r="H33" t="n">
-        <v>61.33980400685638</v>
+        <v>135.3579811619002</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>108.4221208787228</v>
       </c>
       <c r="J33" t="n">
-        <v>58.05487268257806</v>
+        <v>58.05487268257805</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25040,10 +25040,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>22.206312720642</v>
       </c>
       <c r="R33" t="n">
-        <v>139.0123858214999</v>
+        <v>30.20410702821579</v>
       </c>
       <c r="S33" t="n">
         <v>203.4213577583714</v>
@@ -25064,7 +25064,7 @@
         <v>230.033063710963</v>
       </c>
       <c r="Y33" t="n">
-        <v>242.8962664135933</v>
+        <v>134.0879876203093</v>
       </c>
     </row>
     <row r="34">
@@ -25098,13 +25098,13 @@
         <v>161.4902352246459</v>
       </c>
       <c r="J34" t="n">
-        <v>117.5978061759027</v>
+        <v>117.5978061759026</v>
       </c>
       <c r="K34" t="n">
-        <v>63.33648206393785</v>
+        <v>63.33648206393784</v>
       </c>
       <c r="L34" t="n">
-        <v>30.14121960611614</v>
+        <v>30.14121960611612</v>
       </c>
       <c r="M34" t="n">
         <v>25.09357144955206</v>
@@ -25113,16 +25113,16 @@
         <v>13.52551334516536</v>
       </c>
       <c r="O34" t="n">
-        <v>41.37252221395666</v>
+        <v>41.37252221395664</v>
       </c>
       <c r="P34" t="n">
-        <v>64.73204479399234</v>
+        <v>64.73204479399233</v>
       </c>
       <c r="Q34" t="n">
         <v>134.2488536926202</v>
       </c>
       <c r="R34" t="n">
-        <v>211.7157157501224</v>
+        <v>211.7157157501223</v>
       </c>
       <c r="S34" t="n">
         <v>240.0728286205131</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>286.5510898245402</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C35" t="n">
-        <v>326.9447724879826</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D35" t="n">
         <v>319.1317556432476</v>
@@ -25168,16 +25168,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G35" t="n">
-        <v>343.7123612981688</v>
+        <v>343.7123612981685</v>
       </c>
       <c r="H35" t="n">
         <v>344.918433361933</v>
       </c>
       <c r="I35" t="n">
-        <v>157.4306342212043</v>
+        <v>234.6035142817423</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>61.87802121314189</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>67.6980104873827</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>180.5764565462965</v>
@@ -25210,10 +25210,10 @@
         <v>217.3169933574058</v>
       </c>
       <c r="U35" t="n">
-        <v>248.7517957364543</v>
+        <v>170.7465579639311</v>
       </c>
       <c r="V35" t="n">
-        <v>313.3044420010231</v>
+        <v>235.2992042284999</v>
       </c>
       <c r="W35" t="n">
         <v>325.3917254792934</v>
@@ -25232,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>110.0075196085115</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C36" t="n">
-        <v>193.1902868677792</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D36" t="n">
         <v>172.0989423795122</v>
@@ -25256,7 +25256,7 @@
         <v>108.4221208787228</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>58.05487268257805</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25277,31 +25277,31 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.20631272064202</v>
+        <v>22.206312720642</v>
       </c>
       <c r="R36" t="n">
         <v>139.0123858214999</v>
       </c>
       <c r="S36" t="n">
-        <v>203.4213577583714</v>
+        <v>134.7143443283329</v>
       </c>
       <c r="T36" t="n">
-        <v>229.0968424055386</v>
+        <v>151.0916046330154</v>
       </c>
       <c r="U36" t="n">
-        <v>249.633257640348</v>
+        <v>171.6280198678247</v>
       </c>
       <c r="V36" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W36" t="n">
-        <v>205.2440189904081</v>
+        <v>205.2440189904079</v>
       </c>
       <c r="X36" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y36" t="n">
-        <v>164.8910286410704</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="37">
@@ -25335,13 +25335,13 @@
         <v>161.4902352246459</v>
       </c>
       <c r="J37" t="n">
-        <v>117.5978061759027</v>
+        <v>117.5978061759026</v>
       </c>
       <c r="K37" t="n">
-        <v>63.33648206393785</v>
+        <v>63.33648206393784</v>
       </c>
       <c r="L37" t="n">
-        <v>30.14121960611614</v>
+        <v>30.14121960611612</v>
       </c>
       <c r="M37" t="n">
         <v>25.09357144955206</v>
@@ -25350,16 +25350,16 @@
         <v>13.52551334516536</v>
       </c>
       <c r="O37" t="n">
-        <v>41.37252221395666</v>
+        <v>41.37252221395664</v>
       </c>
       <c r="P37" t="n">
-        <v>64.73204479399234</v>
+        <v>64.73204479399233</v>
       </c>
       <c r="Q37" t="n">
         <v>134.2488536926202</v>
       </c>
       <c r="R37" t="n">
-        <v>211.7157157501224</v>
+        <v>211.7157157501223</v>
       </c>
       <c r="S37" t="n">
         <v>240.0728286205131</v>
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>364.5563275970632</v>
+        <v>296.0259593976955</v>
       </c>
       <c r="C38" t="n">
-        <v>333.5971194742085</v>
+        <v>255.5918817016852</v>
       </c>
       <c r="D38" t="n">
-        <v>319.1317556432476</v>
+        <v>241.1265178707244</v>
       </c>
       <c r="E38" t="n">
-        <v>359.9585549362873</v>
+        <v>281.953317163764</v>
       </c>
       <c r="F38" t="n">
         <v>399.146417573369</v>
@@ -25414,7 +25414,7 @@
         <v>235.4358719937273</v>
       </c>
       <c r="J38" t="n">
-        <v>61.87802121314192</v>
+        <v>61.87802121314189</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,10 +25435,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>67.6980104873827</v>
+        <v>67.69801048738267</v>
       </c>
       <c r="R38" t="n">
-        <v>102.5712187737736</v>
+        <v>180.5764565462965</v>
       </c>
       <c r="S38" t="n">
         <v>224.7173647462005</v>
@@ -25450,13 +25450,13 @@
         <v>248.7517957364543</v>
       </c>
       <c r="V38" t="n">
-        <v>235.2992042285001</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W38" t="n">
-        <v>247.3864877067704</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X38" t="n">
-        <v>280.2865111041451</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y38" t="n">
         <v>377.9289763951821</v>
@@ -25472,28 +25472,28 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C39" t="n">
-        <v>125.8371898427164</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D39" t="n">
         <v>172.0989423795122</v>
       </c>
       <c r="E39" t="n">
-        <v>109.4553075250799</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F39" t="n">
-        <v>105.2773346952857</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
         <v>160.7672545186643</v>
       </c>
       <c r="H39" t="n">
-        <v>135.3579811619002</v>
+        <v>57.35274338937697</v>
       </c>
       <c r="I39" t="n">
         <v>108.4221208787228</v>
       </c>
       <c r="J39" t="n">
-        <v>58.05487268257806</v>
+        <v>58.05487268257805</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25514,7 +25514,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.20631272064202</v>
+        <v>22.206312720642</v>
       </c>
       <c r="R39" t="n">
         <v>139.0123858214999</v>
@@ -25523,16 +25523,16 @@
         <v>203.4213577583714</v>
       </c>
       <c r="T39" t="n">
-        <v>229.0968424055386</v>
+        <v>151.0916046330154</v>
       </c>
       <c r="U39" t="n">
-        <v>249.633257640348</v>
+        <v>171.6280198678247</v>
       </c>
       <c r="V39" t="n">
-        <v>249.2999251801724</v>
+        <v>180.5929117501339</v>
       </c>
       <c r="W39" t="n">
-        <v>205.2440189904081</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X39" t="n">
         <v>230.033063710963</v>
@@ -25572,13 +25572,13 @@
         <v>161.4902352246459</v>
       </c>
       <c r="J40" t="n">
-        <v>117.5978061759027</v>
+        <v>117.5978061759026</v>
       </c>
       <c r="K40" t="n">
-        <v>63.33648206393785</v>
+        <v>63.33648206393784</v>
       </c>
       <c r="L40" t="n">
-        <v>30.14121960611614</v>
+        <v>30.14121960611612</v>
       </c>
       <c r="M40" t="n">
         <v>25.09357144955206</v>
@@ -25587,16 +25587,16 @@
         <v>13.52551334516536</v>
       </c>
       <c r="O40" t="n">
-        <v>41.37252221395666</v>
+        <v>41.37252221395664</v>
       </c>
       <c r="P40" t="n">
-        <v>64.73204479399234</v>
+        <v>64.73204479399233</v>
       </c>
       <c r="Q40" t="n">
         <v>134.2488536926202</v>
       </c>
       <c r="R40" t="n">
-        <v>211.7157157501224</v>
+        <v>211.7157157501223</v>
       </c>
       <c r="S40" t="n">
         <v>240.0728286205131</v>
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>286.5510898245402</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C41" t="n">
         <v>333.5971194742085</v>
       </c>
       <c r="D41" t="n">
-        <v>319.1317556432476</v>
+        <v>250.6013874438798</v>
       </c>
       <c r="E41" t="n">
         <v>359.9585549362873</v>
       </c>
       <c r="F41" t="n">
-        <v>321.1411798008461</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G41" t="n">
         <v>421.7175990706918</v>
@@ -25651,7 +25651,7 @@
         <v>235.4358719937273</v>
       </c>
       <c r="J41" t="n">
-        <v>61.87802121314192</v>
+        <v>61.87802121314189</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,22 +25672,22 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>67.69801048738267</v>
       </c>
       <c r="R41" t="n">
-        <v>179.7440988343114</v>
+        <v>180.5764565462965</v>
       </c>
       <c r="S41" t="n">
         <v>224.7173647462005</v>
       </c>
       <c r="T41" t="n">
-        <v>217.3169933574058</v>
+        <v>139.3117555848827</v>
       </c>
       <c r="U41" t="n">
-        <v>248.7517957364543</v>
+        <v>170.7465579639313</v>
       </c>
       <c r="V41" t="n">
-        <v>313.3044420010231</v>
+        <v>235.2992042285001</v>
       </c>
       <c r="W41" t="n">
         <v>325.3917254792934</v>
@@ -25696,7 +25696,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y41" t="n">
-        <v>299.9237386226591</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="42">
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>119.3057439509962</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C42" t="n">
-        <v>125.8371898427164</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D42" t="n">
         <v>172.0989423795122</v>
@@ -25718,10 +25718,10 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F42" t="n">
-        <v>173.9843481253239</v>
+        <v>105.2773346952856</v>
       </c>
       <c r="G42" t="n">
-        <v>160.7672545186643</v>
+        <v>82.76201674614123</v>
       </c>
       <c r="H42" t="n">
         <v>135.3579811619002</v>
@@ -25730,7 +25730,7 @@
         <v>108.4221208787228</v>
       </c>
       <c r="J42" t="n">
-        <v>58.05487268257806</v>
+        <v>58.05487268257805</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25751,7 +25751,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.20631272064202</v>
+        <v>22.206312720642</v>
       </c>
       <c r="R42" t="n">
         <v>139.0123858214999</v>
@@ -25760,22 +25760,22 @@
         <v>203.4213577583714</v>
       </c>
       <c r="T42" t="n">
-        <v>229.0968424055386</v>
+        <v>151.0916046330156</v>
       </c>
       <c r="U42" t="n">
-        <v>249.633257640348</v>
+        <v>171.6280198678249</v>
       </c>
       <c r="V42" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W42" t="n">
-        <v>205.2440189904081</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X42" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y42" t="n">
-        <v>164.8910286410704</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="43">
@@ -25809,13 +25809,13 @@
         <v>161.4902352246459</v>
       </c>
       <c r="J43" t="n">
-        <v>117.5978061759027</v>
+        <v>117.5978061759026</v>
       </c>
       <c r="K43" t="n">
-        <v>63.33648206393785</v>
+        <v>63.33648206393784</v>
       </c>
       <c r="L43" t="n">
-        <v>30.14121960611614</v>
+        <v>30.14121960611612</v>
       </c>
       <c r="M43" t="n">
         <v>25.09357144955206</v>
@@ -25824,16 +25824,16 @@
         <v>13.52551334516536</v>
       </c>
       <c r="O43" t="n">
-        <v>41.37252221395666</v>
+        <v>41.37252221395664</v>
       </c>
       <c r="P43" t="n">
-        <v>64.73204479399234</v>
+        <v>64.73204479399233</v>
       </c>
       <c r="Q43" t="n">
         <v>134.2488536926202</v>
       </c>
       <c r="R43" t="n">
-        <v>211.7157157501224</v>
+        <v>211.7157157501223</v>
       </c>
       <c r="S43" t="n">
         <v>240.0728286205131</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>364.5563275970632</v>
+        <v>286.5510898245401</v>
       </c>
       <c r="C44" t="n">
         <v>333.5971194742085</v>
@@ -25879,16 +25879,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G44" t="n">
-        <v>421.7175990706918</v>
+        <v>343.7123612981687</v>
       </c>
       <c r="H44" t="n">
         <v>344.918433361933</v>
       </c>
       <c r="I44" t="n">
-        <v>157.4306342212043</v>
+        <v>235.4358719937273</v>
       </c>
       <c r="J44" t="n">
-        <v>61.04566350115682</v>
+        <v>61.87802121314189</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>67.69801048738267</v>
       </c>
       <c r="R44" t="n">
         <v>180.5764565462965</v>
@@ -25918,13 +25918,13 @@
         <v>224.7173647462005</v>
       </c>
       <c r="T44" t="n">
-        <v>217.3169933574058</v>
+        <v>139.3117555848827</v>
       </c>
       <c r="U44" t="n">
-        <v>170.7465579639314</v>
+        <v>248.7517957364543</v>
       </c>
       <c r="V44" t="n">
-        <v>235.2992042285001</v>
+        <v>244.7740738016553</v>
       </c>
       <c r="W44" t="n">
         <v>325.3917254792934</v>
@@ -25949,25 +25949,25 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D45" t="n">
-        <v>172.0989423795122</v>
+        <v>94.09370460698918</v>
       </c>
       <c r="E45" t="n">
         <v>187.4605452976028</v>
       </c>
       <c r="F45" t="n">
-        <v>163.3322073778638</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G45" t="n">
-        <v>160.7672545186643</v>
+        <v>82.76201674614123</v>
       </c>
       <c r="H45" t="n">
-        <v>135.3579811619002</v>
+        <v>57.3527433893772</v>
       </c>
       <c r="I45" t="n">
-        <v>30.41688310619983</v>
+        <v>108.4221208787228</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>58.05487268257805</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25988,7 +25988,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.20631272064202</v>
+        <v>22.206312720642</v>
       </c>
       <c r="R45" t="n">
         <v>139.0123858214999</v>
@@ -26000,13 +26000,13 @@
         <v>229.0968424055386</v>
       </c>
       <c r="U45" t="n">
-        <v>171.628019867825</v>
+        <v>180.9262442103097</v>
       </c>
       <c r="V45" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W45" t="n">
-        <v>205.2440189904081</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X45" t="n">
         <v>230.033063710963</v>
@@ -26046,13 +26046,13 @@
         <v>161.4902352246459</v>
       </c>
       <c r="J46" t="n">
-        <v>117.5978061759027</v>
+        <v>117.5978061759026</v>
       </c>
       <c r="K46" t="n">
-        <v>63.33648206393785</v>
+        <v>63.33648206393784</v>
       </c>
       <c r="L46" t="n">
-        <v>30.14121960611614</v>
+        <v>30.14121960611612</v>
       </c>
       <c r="M46" t="n">
         <v>25.09357144955206</v>
@@ -26061,16 +26061,16 @@
         <v>13.52551334516536</v>
       </c>
       <c r="O46" t="n">
-        <v>41.37252221395666</v>
+        <v>41.37252221395664</v>
       </c>
       <c r="P46" t="n">
-        <v>64.73204479399234</v>
+        <v>64.73204479399233</v>
       </c>
       <c r="Q46" t="n">
         <v>134.2488536926202</v>
       </c>
       <c r="R46" t="n">
-        <v>211.7157157501224</v>
+        <v>211.7157157501223</v>
       </c>
       <c r="S46" t="n">
         <v>240.0728286205131</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>438513.5361710761</v>
+        <v>438513.5361710758</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>438513.5361710759</v>
+        <v>438513.5361710758</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>451113.8958186885</v>
+        <v>451113.8958186884</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>451113.8958186886</v>
+        <v>451113.8958186887</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>451113.8958186887</v>
+        <v>451113.8958186885</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>451113.8958186885</v>
+        <v>451113.8958186887</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>438513.5361710758</v>
+        <v>438513.5361710759</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>438513.5361710758</v>
+        <v>438513.5361710759</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>438513.5361710759</v>
+        <v>438513.5361710758</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>438513.5361710758</v>
+        <v>438513.5361710757</v>
       </c>
     </row>
   </sheetData>
@@ -26337,19 +26337,19 @@
         <v>191592.7622533352</v>
       </c>
       <c r="J2" t="n">
-        <v>191592.7622533353</v>
+        <v>191592.7622533352</v>
       </c>
       <c r="K2" t="n">
         <v>191592.7622533353</v>
       </c>
       <c r="L2" t="n">
-        <v>191592.7622533352</v>
+        <v>191592.7622533353</v>
       </c>
       <c r="M2" t="n">
-        <v>186408.506766505</v>
+        <v>186408.5067665051</v>
       </c>
       <c r="N2" t="n">
-        <v>186408.506766505</v>
+        <v>186408.5067665051</v>
       </c>
       <c r="O2" t="n">
         <v>186408.506766505</v>
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>6.41526572512642e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>8191.175471281801</v>
+        <v>8191.175471281802</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4232.647237772461</v>
+        <v>4232.647237772462</v>
       </c>
       <c r="C4" t="n">
         <v>4232.647237772461</v>
@@ -26438,22 +26438,22 @@
         <v>3616.855264264366</v>
       </c>
       <c r="I4" t="n">
-        <v>4135.731681290333</v>
+        <v>4135.731681290332</v>
       </c>
       <c r="J4" t="n">
-        <v>4135.731681290334</v>
+        <v>4135.731681290332</v>
       </c>
       <c r="K4" t="n">
-        <v>4135.731681290333</v>
+        <v>4135.731681290332</v>
       </c>
       <c r="L4" t="n">
-        <v>4135.731681290333</v>
+        <v>4135.731681290332</v>
       </c>
       <c r="M4" t="n">
-        <v>3616.855264264366</v>
+        <v>3616.85526426437</v>
       </c>
       <c r="N4" t="n">
-        <v>3616.855264264366</v>
+        <v>3616.85526426437</v>
       </c>
       <c r="O4" t="n">
         <v>3616.855264264366</v>
@@ -26478,16 +26478,16 @@
         <v>40368.52827033812</v>
       </c>
       <c r="E5" t="n">
-        <v>14897.4821378051</v>
+        <v>14897.48213780511</v>
       </c>
       <c r="F5" t="n">
-        <v>14897.4821378051</v>
+        <v>14897.48213780511</v>
       </c>
       <c r="G5" t="n">
-        <v>14897.4821378051</v>
+        <v>14897.48213780511</v>
       </c>
       <c r="H5" t="n">
-        <v>14897.4821378051</v>
+        <v>14897.48213780511</v>
       </c>
       <c r="I5" t="n">
         <v>16770.30703186738</v>
@@ -26502,16 +26502,16 @@
         <v>16770.30703186738</v>
       </c>
       <c r="M5" t="n">
-        <v>14897.4821378051</v>
+        <v>14897.48213780512</v>
       </c>
       <c r="N5" t="n">
-        <v>14897.4821378051</v>
+        <v>14897.48213780512</v>
       </c>
       <c r="O5" t="n">
-        <v>14897.4821378051</v>
+        <v>14897.48213780511</v>
       </c>
       <c r="P5" t="n">
-        <v>14897.4821378051</v>
+        <v>14897.48213780511</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-176494.116955018</v>
+        <v>-193990.5252614175</v>
       </c>
       <c r="C6" t="n">
-        <v>88933.22788339085</v>
+        <v>71436.81957699133</v>
       </c>
       <c r="D6" t="n">
-        <v>68414.03617602702</v>
+        <v>51344.13760774562</v>
       </c>
       <c r="E6" t="n">
-        <v>18792.25493852731</v>
+        <v>3848.71417440703</v>
       </c>
       <c r="F6" t="n">
-        <v>167894.1693644355</v>
+        <v>152950.6286003153</v>
       </c>
       <c r="G6" t="n">
-        <v>167894.1693644355</v>
+        <v>152950.6286003152</v>
       </c>
       <c r="H6" t="n">
-        <v>167894.1693644355</v>
+        <v>152950.6286003153</v>
       </c>
       <c r="I6" t="n">
-        <v>162495.5480688957</v>
+        <v>147798.8766136721</v>
       </c>
       <c r="J6" t="n">
-        <v>170686.7235401776</v>
+        <v>155990.0520849539</v>
       </c>
       <c r="K6" t="n">
-        <v>170686.7235401776</v>
+        <v>155990.052084954</v>
       </c>
       <c r="L6" t="n">
-        <v>170686.7235401775</v>
+        <v>155990.052084954</v>
       </c>
       <c r="M6" t="n">
-        <v>156131.1931251094</v>
+        <v>141187.6523609892</v>
       </c>
       <c r="N6" t="n">
-        <v>167894.1693644355</v>
+        <v>152950.6286003154</v>
       </c>
       <c r="O6" t="n">
-        <v>167894.1693644355</v>
+        <v>152950.6286003153</v>
       </c>
       <c r="P6" t="n">
-        <v>167894.1693644355</v>
+        <v>152950.6286003152</v>
       </c>
     </row>
   </sheetData>
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>78.00523777252297</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="F4" t="n">
-        <v>78.00523777252297</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="G4" t="n">
-        <v>78.00523777252297</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="H4" t="n">
-        <v>78.00523777252297</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="I4" t="n">
         <v>108.8082787932841</v>
@@ -26822,16 +26822,16 @@
         <v>108.8082787932841</v>
       </c>
       <c r="M4" t="n">
-        <v>78.00523777252297</v>
+        <v>78.00523777252326</v>
       </c>
       <c r="N4" t="n">
-        <v>78.00523777252297</v>
+        <v>78.00523777252326</v>
       </c>
       <c r="O4" t="n">
-        <v>78.00523777252297</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="P4" t="n">
-        <v>78.00523777252297</v>
+        <v>78.00523777252303</v>
       </c>
     </row>
   </sheetData>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>78.00523777252315</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2.340611753699188e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>47.20219675176212</v>
+        <v>47.20219675176214</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>78.00523777252315</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>2.340611753699188e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31755,7 +31755,7 @@
         <v>1.872622503570273</v>
       </c>
       <c r="H11" t="n">
-        <v>19.17799521468906</v>
+        <v>19.17799521468907</v>
       </c>
       <c r="I11" t="n">
         <v>72.19427906889302</v>
@@ -31791,7 +31791,7 @@
         <v>42.67238530010764</v>
       </c>
       <c r="T11" t="n">
-        <v>8.197405009378874</v>
+        <v>8.197405009378876</v>
       </c>
       <c r="U11" t="n">
         <v>0.1498098002856218</v>
@@ -31837,13 +31837,13 @@
         <v>9.676644290324143</v>
       </c>
       <c r="I12" t="n">
-        <v>34.4966656126451</v>
+        <v>34.49666561264511</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6614871289157</v>
+        <v>94.66148712891571</v>
       </c>
       <c r="K12" t="n">
-        <v>161.7915589631534</v>
+        <v>161.7915589631535</v>
       </c>
       <c r="L12" t="n">
         <v>217.5487173444581</v>
@@ -31864,7 +31864,7 @@
         <v>127.8969370688437</v>
       </c>
       <c r="R12" t="n">
-        <v>62.20825457485404</v>
+        <v>62.20825457485405</v>
       </c>
       <c r="S12" t="n">
         <v>18.61062151204483</v>
@@ -31873,7 +31873,7 @@
         <v>4.038526840512208</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06591719543817537</v>
+        <v>0.06591719543817538</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8399939877695349</v>
+        <v>0.839993987769535</v>
       </c>
       <c r="H13" t="n">
-        <v>7.468310182169143</v>
+        <v>7.468310182169144</v>
       </c>
       <c r="I13" t="n">
         <v>25.26091010492384</v>
       </c>
       <c r="J13" t="n">
-        <v>59.38757493530611</v>
+        <v>59.38757493530612</v>
       </c>
       <c r="K13" t="n">
-        <v>97.59202876086049</v>
+        <v>97.5920287608605</v>
       </c>
       <c r="L13" t="n">
         <v>124.8841970543907</v>
@@ -31934,22 +31934,22 @@
         <v>128.5419890556781</v>
       </c>
       <c r="O13" t="n">
-        <v>118.7293320167339</v>
+        <v>118.729332016734</v>
       </c>
       <c r="P13" t="n">
-        <v>101.5934546662353</v>
+        <v>101.5934546662354</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.33804201222897</v>
+        <v>70.33804201222898</v>
       </c>
       <c r="R13" t="n">
-        <v>37.76918421371017</v>
+        <v>37.76918421371018</v>
       </c>
       <c r="S13" t="n">
         <v>14.63880431412907</v>
       </c>
       <c r="T13" t="n">
-        <v>3.58906522046983</v>
+        <v>3.589065220469831</v>
       </c>
       <c r="U13" t="n">
         <v>0.04581785387833832</v>
@@ -31992,7 +31992,7 @@
         <v>1.872622503570273</v>
       </c>
       <c r="H14" t="n">
-        <v>19.17799521468906</v>
+        <v>19.17799521468907</v>
       </c>
       <c r="I14" t="n">
         <v>72.19427906889302</v>
@@ -32028,7 +32028,7 @@
         <v>42.67238530010764</v>
       </c>
       <c r="T14" t="n">
-        <v>8.197405009378874</v>
+        <v>8.197405009378876</v>
       </c>
       <c r="U14" t="n">
         <v>0.1498098002856218</v>
@@ -32074,13 +32074,13 @@
         <v>9.676644290324143</v>
       </c>
       <c r="I15" t="n">
-        <v>34.4966656126451</v>
+        <v>34.49666561264511</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6614871289157</v>
+        <v>94.66148712891571</v>
       </c>
       <c r="K15" t="n">
-        <v>161.7915589631534</v>
+        <v>161.7915589631535</v>
       </c>
       <c r="L15" t="n">
         <v>217.5487173444581</v>
@@ -32101,7 +32101,7 @@
         <v>127.8969370688437</v>
       </c>
       <c r="R15" t="n">
-        <v>62.20825457485404</v>
+        <v>62.20825457485405</v>
       </c>
       <c r="S15" t="n">
         <v>18.61062151204483</v>
@@ -32110,7 +32110,7 @@
         <v>4.038526840512208</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06591719543817537</v>
+        <v>0.06591719543817538</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8399939877695349</v>
+        <v>0.839993987769535</v>
       </c>
       <c r="H16" t="n">
-        <v>7.468310182169143</v>
+        <v>7.468310182169144</v>
       </c>
       <c r="I16" t="n">
         <v>25.26091010492384</v>
       </c>
       <c r="J16" t="n">
-        <v>59.38757493530611</v>
+        <v>59.38757493530612</v>
       </c>
       <c r="K16" t="n">
-        <v>97.59202876086049</v>
+        <v>97.5920287608605</v>
       </c>
       <c r="L16" t="n">
         <v>124.8841970543907</v>
@@ -32171,22 +32171,22 @@
         <v>128.5419890556781</v>
       </c>
       <c r="O16" t="n">
-        <v>118.7293320167339</v>
+        <v>118.729332016734</v>
       </c>
       <c r="P16" t="n">
-        <v>101.5934546662353</v>
+        <v>101.5934546662354</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.33804201222897</v>
+        <v>70.33804201222898</v>
       </c>
       <c r="R16" t="n">
-        <v>37.76918421371017</v>
+        <v>37.76918421371018</v>
       </c>
       <c r="S16" t="n">
         <v>14.63880431412907</v>
       </c>
       <c r="T16" t="n">
-        <v>3.58906522046983</v>
+        <v>3.589065220469831</v>
       </c>
       <c r="U16" t="n">
         <v>0.04581785387833832</v>
@@ -32229,7 +32229,7 @@
         <v>1.872622503570273</v>
       </c>
       <c r="H17" t="n">
-        <v>19.17799521468906</v>
+        <v>19.17799521468907</v>
       </c>
       <c r="I17" t="n">
         <v>72.19427906889302</v>
@@ -32265,7 +32265,7 @@
         <v>42.67238530010764</v>
       </c>
       <c r="T17" t="n">
-        <v>8.197405009378874</v>
+        <v>8.197405009378876</v>
       </c>
       <c r="U17" t="n">
         <v>0.1498098002856218</v>
@@ -32311,13 +32311,13 @@
         <v>9.676644290324143</v>
       </c>
       <c r="I18" t="n">
-        <v>34.4966656126451</v>
+        <v>34.49666561264511</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6614871289157</v>
+        <v>94.66148712891571</v>
       </c>
       <c r="K18" t="n">
-        <v>161.7915589631534</v>
+        <v>161.7915589631535</v>
       </c>
       <c r="L18" t="n">
         <v>217.5487173444581</v>
@@ -32338,7 +32338,7 @@
         <v>127.8969370688437</v>
       </c>
       <c r="R18" t="n">
-        <v>62.20825457485404</v>
+        <v>62.20825457485405</v>
       </c>
       <c r="S18" t="n">
         <v>18.61062151204483</v>
@@ -32347,7 +32347,7 @@
         <v>4.038526840512208</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06591719543817537</v>
+        <v>0.06591719543817538</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8399939877695349</v>
+        <v>0.839993987769535</v>
       </c>
       <c r="H19" t="n">
-        <v>7.468310182169143</v>
+        <v>7.468310182169144</v>
       </c>
       <c r="I19" t="n">
         <v>25.26091010492384</v>
       </c>
       <c r="J19" t="n">
-        <v>59.38757493530611</v>
+        <v>59.38757493530612</v>
       </c>
       <c r="K19" t="n">
-        <v>97.59202876086049</v>
+        <v>97.5920287608605</v>
       </c>
       <c r="L19" t="n">
         <v>124.8841970543907</v>
@@ -32408,22 +32408,22 @@
         <v>128.5419890556781</v>
       </c>
       <c r="O19" t="n">
-        <v>118.7293320167339</v>
+        <v>118.729332016734</v>
       </c>
       <c r="P19" t="n">
-        <v>101.5934546662353</v>
+        <v>101.5934546662354</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.33804201222897</v>
+        <v>70.33804201222898</v>
       </c>
       <c r="R19" t="n">
-        <v>37.76918421371017</v>
+        <v>37.76918421371018</v>
       </c>
       <c r="S19" t="n">
         <v>14.63880431412907</v>
       </c>
       <c r="T19" t="n">
-        <v>3.58906522046983</v>
+        <v>3.589065220469831</v>
       </c>
       <c r="U19" t="n">
         <v>0.04581785387833832</v>
@@ -32466,7 +32466,7 @@
         <v>1.872622503570273</v>
       </c>
       <c r="H20" t="n">
-        <v>19.17799521468906</v>
+        <v>19.17799521468907</v>
       </c>
       <c r="I20" t="n">
         <v>72.19427906889302</v>
@@ -32502,7 +32502,7 @@
         <v>42.67238530010764</v>
       </c>
       <c r="T20" t="n">
-        <v>8.197405009378874</v>
+        <v>8.197405009378876</v>
       </c>
       <c r="U20" t="n">
         <v>0.1498098002856218</v>
@@ -32548,13 +32548,13 @@
         <v>9.676644290324143</v>
       </c>
       <c r="I21" t="n">
-        <v>34.4966656126451</v>
+        <v>34.49666561264511</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6614871289157</v>
+        <v>94.66148712891571</v>
       </c>
       <c r="K21" t="n">
-        <v>161.7915589631534</v>
+        <v>161.7915589631535</v>
       </c>
       <c r="L21" t="n">
         <v>217.5487173444581</v>
@@ -32575,7 +32575,7 @@
         <v>127.8969370688437</v>
       </c>
       <c r="R21" t="n">
-        <v>62.20825457485404</v>
+        <v>62.20825457485405</v>
       </c>
       <c r="S21" t="n">
         <v>18.61062151204483</v>
@@ -32584,7 +32584,7 @@
         <v>4.038526840512208</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06591719543817537</v>
+        <v>0.06591719543817538</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8399939877695349</v>
+        <v>0.839993987769535</v>
       </c>
       <c r="H22" t="n">
-        <v>7.468310182169143</v>
+        <v>7.468310182169144</v>
       </c>
       <c r="I22" t="n">
         <v>25.26091010492384</v>
       </c>
       <c r="J22" t="n">
-        <v>59.38757493530611</v>
+        <v>59.38757493530612</v>
       </c>
       <c r="K22" t="n">
-        <v>97.59202876086049</v>
+        <v>97.5920287608605</v>
       </c>
       <c r="L22" t="n">
         <v>124.8841970543907</v>
@@ -32645,22 +32645,22 @@
         <v>128.5419890556781</v>
       </c>
       <c r="O22" t="n">
-        <v>118.7293320167339</v>
+        <v>118.729332016734</v>
       </c>
       <c r="P22" t="n">
-        <v>101.5934546662353</v>
+        <v>101.5934546662354</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.33804201222897</v>
+        <v>70.33804201222898</v>
       </c>
       <c r="R22" t="n">
-        <v>37.76918421371017</v>
+        <v>37.76918421371018</v>
       </c>
       <c r="S22" t="n">
         <v>14.63880431412907</v>
       </c>
       <c r="T22" t="n">
-        <v>3.58906522046983</v>
+        <v>3.589065220469831</v>
       </c>
       <c r="U22" t="n">
         <v>0.04581785387833832</v>
@@ -32703,7 +32703,7 @@
         <v>1.872622503570273</v>
       </c>
       <c r="H23" t="n">
-        <v>19.17799521468906</v>
+        <v>19.17799521468907</v>
       </c>
       <c r="I23" t="n">
         <v>72.19427906889302</v>
@@ -32739,7 +32739,7 @@
         <v>42.67238530010764</v>
       </c>
       <c r="T23" t="n">
-        <v>8.197405009378874</v>
+        <v>8.197405009378876</v>
       </c>
       <c r="U23" t="n">
         <v>0.1498098002856218</v>
@@ -32785,13 +32785,13 @@
         <v>9.676644290324143</v>
       </c>
       <c r="I24" t="n">
-        <v>34.4966656126451</v>
+        <v>34.49666561264511</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6614871289157</v>
+        <v>94.66148712891571</v>
       </c>
       <c r="K24" t="n">
-        <v>161.7915589631534</v>
+        <v>161.7915589631535</v>
       </c>
       <c r="L24" t="n">
         <v>217.5487173444581</v>
@@ -32812,7 +32812,7 @@
         <v>127.8969370688437</v>
       </c>
       <c r="R24" t="n">
-        <v>62.20825457485404</v>
+        <v>62.20825457485405</v>
       </c>
       <c r="S24" t="n">
         <v>18.61062151204483</v>
@@ -32821,7 +32821,7 @@
         <v>4.038526840512208</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06591719543817537</v>
+        <v>0.06591719543817538</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8399939877695349</v>
+        <v>0.839993987769535</v>
       </c>
       <c r="H25" t="n">
-        <v>7.468310182169143</v>
+        <v>7.468310182169144</v>
       </c>
       <c r="I25" t="n">
         <v>25.26091010492384</v>
       </c>
       <c r="J25" t="n">
-        <v>59.38757493530611</v>
+        <v>59.38757493530612</v>
       </c>
       <c r="K25" t="n">
-        <v>97.59202876086049</v>
+        <v>97.5920287608605</v>
       </c>
       <c r="L25" t="n">
         <v>124.8841970543907</v>
@@ -32882,22 +32882,22 @@
         <v>128.5419890556781</v>
       </c>
       <c r="O25" t="n">
-        <v>118.7293320167339</v>
+        <v>118.729332016734</v>
       </c>
       <c r="P25" t="n">
-        <v>101.5934546662353</v>
+        <v>101.5934546662354</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.33804201222897</v>
+        <v>70.33804201222898</v>
       </c>
       <c r="R25" t="n">
-        <v>37.76918421371017</v>
+        <v>37.76918421371018</v>
       </c>
       <c r="S25" t="n">
         <v>14.63880431412907</v>
       </c>
       <c r="T25" t="n">
-        <v>3.58906522046983</v>
+        <v>3.589065220469831</v>
       </c>
       <c r="U25" t="n">
         <v>0.04581785387833832</v>
@@ -32940,7 +32940,7 @@
         <v>1.872622503570273</v>
       </c>
       <c r="H26" t="n">
-        <v>19.17799521468906</v>
+        <v>19.17799521468907</v>
       </c>
       <c r="I26" t="n">
         <v>72.19427906889302</v>
@@ -32976,7 +32976,7 @@
         <v>42.67238530010764</v>
       </c>
       <c r="T26" t="n">
-        <v>8.197405009378874</v>
+        <v>8.197405009378876</v>
       </c>
       <c r="U26" t="n">
         <v>0.1498098002856218</v>
@@ -33022,13 +33022,13 @@
         <v>9.676644290324143</v>
       </c>
       <c r="I27" t="n">
-        <v>34.4966656126451</v>
+        <v>34.49666561264511</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6614871289157</v>
+        <v>94.66148712891571</v>
       </c>
       <c r="K27" t="n">
-        <v>161.7915589631534</v>
+        <v>161.7915589631535</v>
       </c>
       <c r="L27" t="n">
         <v>217.5487173444581</v>
@@ -33049,7 +33049,7 @@
         <v>127.8969370688437</v>
       </c>
       <c r="R27" t="n">
-        <v>62.20825457485404</v>
+        <v>62.20825457485405</v>
       </c>
       <c r="S27" t="n">
         <v>18.61062151204483</v>
@@ -33058,7 +33058,7 @@
         <v>4.038526840512208</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06591719543817537</v>
+        <v>0.06591719543817538</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8399939877695349</v>
+        <v>0.839993987769535</v>
       </c>
       <c r="H28" t="n">
-        <v>7.468310182169143</v>
+        <v>7.468310182169144</v>
       </c>
       <c r="I28" t="n">
         <v>25.26091010492384</v>
       </c>
       <c r="J28" t="n">
-        <v>59.38757493530611</v>
+        <v>59.38757493530612</v>
       </c>
       <c r="K28" t="n">
-        <v>97.59202876086049</v>
+        <v>97.5920287608605</v>
       </c>
       <c r="L28" t="n">
         <v>124.8841970543907</v>
@@ -33119,22 +33119,22 @@
         <v>128.5419890556781</v>
       </c>
       <c r="O28" t="n">
-        <v>118.7293320167339</v>
+        <v>118.729332016734</v>
       </c>
       <c r="P28" t="n">
-        <v>101.5934546662353</v>
+        <v>101.5934546662354</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.33804201222897</v>
+        <v>70.33804201222898</v>
       </c>
       <c r="R28" t="n">
-        <v>37.76918421371017</v>
+        <v>37.76918421371018</v>
       </c>
       <c r="S28" t="n">
         <v>14.63880431412907</v>
       </c>
       <c r="T28" t="n">
-        <v>3.58906522046983</v>
+        <v>3.589065220469831</v>
       </c>
       <c r="U28" t="n">
         <v>0.04581785387833832</v>
@@ -33177,7 +33177,7 @@
         <v>1.872622503570273</v>
       </c>
       <c r="H29" t="n">
-        <v>19.17799521468906</v>
+        <v>19.17799521468907</v>
       </c>
       <c r="I29" t="n">
         <v>72.19427906889302</v>
@@ -33213,7 +33213,7 @@
         <v>42.67238530010764</v>
       </c>
       <c r="T29" t="n">
-        <v>8.197405009378874</v>
+        <v>8.197405009378876</v>
       </c>
       <c r="U29" t="n">
         <v>0.1498098002856218</v>
@@ -33259,13 +33259,13 @@
         <v>9.676644290324143</v>
       </c>
       <c r="I30" t="n">
-        <v>34.4966656126451</v>
+        <v>34.49666561264511</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6614871289157</v>
+        <v>94.66148712891571</v>
       </c>
       <c r="K30" t="n">
-        <v>161.7915589631534</v>
+        <v>161.7915589631535</v>
       </c>
       <c r="L30" t="n">
         <v>217.5487173444581</v>
@@ -33286,7 +33286,7 @@
         <v>127.8969370688437</v>
       </c>
       <c r="R30" t="n">
-        <v>62.20825457485404</v>
+        <v>62.20825457485405</v>
       </c>
       <c r="S30" t="n">
         <v>18.61062151204483</v>
@@ -33295,7 +33295,7 @@
         <v>4.038526840512208</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06591719543817537</v>
+        <v>0.06591719543817538</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8399939877695349</v>
+        <v>0.839993987769535</v>
       </c>
       <c r="H31" t="n">
-        <v>7.468310182169143</v>
+        <v>7.468310182169144</v>
       </c>
       <c r="I31" t="n">
         <v>25.26091010492384</v>
       </c>
       <c r="J31" t="n">
-        <v>59.38757493530611</v>
+        <v>59.38757493530612</v>
       </c>
       <c r="K31" t="n">
-        <v>97.59202876086049</v>
+        <v>97.5920287608605</v>
       </c>
       <c r="L31" t="n">
         <v>124.8841970543907</v>
@@ -33356,22 +33356,22 @@
         <v>128.5419890556781</v>
       </c>
       <c r="O31" t="n">
-        <v>118.7293320167339</v>
+        <v>118.729332016734</v>
       </c>
       <c r="P31" t="n">
-        <v>101.5934546662353</v>
+        <v>101.5934546662354</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.33804201222897</v>
+        <v>70.33804201222898</v>
       </c>
       <c r="R31" t="n">
-        <v>37.76918421371017</v>
+        <v>37.76918421371018</v>
       </c>
       <c r="S31" t="n">
         <v>14.63880431412907</v>
       </c>
       <c r="T31" t="n">
-        <v>3.58906522046983</v>
+        <v>3.589065220469831</v>
       </c>
       <c r="U31" t="n">
         <v>0.04581785387833832</v>
@@ -33414,7 +33414,7 @@
         <v>1.872622503570273</v>
       </c>
       <c r="H32" t="n">
-        <v>19.17799521468906</v>
+        <v>19.17799521468907</v>
       </c>
       <c r="I32" t="n">
         <v>72.19427906889302</v>
@@ -33450,7 +33450,7 @@
         <v>42.67238530010764</v>
       </c>
       <c r="T32" t="n">
-        <v>8.197405009378874</v>
+        <v>8.197405009378876</v>
       </c>
       <c r="U32" t="n">
         <v>0.1498098002856218</v>
@@ -33496,13 +33496,13 @@
         <v>9.676644290324143</v>
       </c>
       <c r="I33" t="n">
-        <v>34.4966656126451</v>
+        <v>34.49666561264511</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6614871289157</v>
+        <v>94.66148712891571</v>
       </c>
       <c r="K33" t="n">
-        <v>161.7915589631534</v>
+        <v>161.7915589631535</v>
       </c>
       <c r="L33" t="n">
         <v>217.5487173444581</v>
@@ -33523,7 +33523,7 @@
         <v>127.8969370688437</v>
       </c>
       <c r="R33" t="n">
-        <v>62.20825457485404</v>
+        <v>62.20825457485405</v>
       </c>
       <c r="S33" t="n">
         <v>18.61062151204483</v>
@@ -33532,7 +33532,7 @@
         <v>4.038526840512208</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06591719543817537</v>
+        <v>0.06591719543817538</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8399939877695349</v>
+        <v>0.839993987769535</v>
       </c>
       <c r="H34" t="n">
-        <v>7.468310182169143</v>
+        <v>7.468310182169144</v>
       </c>
       <c r="I34" t="n">
         <v>25.26091010492384</v>
       </c>
       <c r="J34" t="n">
-        <v>59.38757493530611</v>
+        <v>59.38757493530612</v>
       </c>
       <c r="K34" t="n">
-        <v>97.59202876086049</v>
+        <v>97.5920287608605</v>
       </c>
       <c r="L34" t="n">
         <v>124.8841970543907</v>
@@ -33593,22 +33593,22 @@
         <v>128.5419890556781</v>
       </c>
       <c r="O34" t="n">
-        <v>118.7293320167339</v>
+        <v>118.729332016734</v>
       </c>
       <c r="P34" t="n">
-        <v>101.5934546662353</v>
+        <v>101.5934546662354</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.33804201222897</v>
+        <v>70.33804201222898</v>
       </c>
       <c r="R34" t="n">
-        <v>37.76918421371017</v>
+        <v>37.76918421371018</v>
       </c>
       <c r="S34" t="n">
         <v>14.63880431412907</v>
       </c>
       <c r="T34" t="n">
-        <v>3.58906522046983</v>
+        <v>3.589065220469831</v>
       </c>
       <c r="U34" t="n">
         <v>0.04581785387833832</v>
@@ -33651,7 +33651,7 @@
         <v>1.872622503570273</v>
       </c>
       <c r="H35" t="n">
-        <v>19.17799521468906</v>
+        <v>19.17799521468907</v>
       </c>
       <c r="I35" t="n">
         <v>72.19427906889302</v>
@@ -33687,7 +33687,7 @@
         <v>42.67238530010764</v>
       </c>
       <c r="T35" t="n">
-        <v>8.197405009378874</v>
+        <v>8.197405009378876</v>
       </c>
       <c r="U35" t="n">
         <v>0.1498098002856218</v>
@@ -33733,13 +33733,13 @@
         <v>9.676644290324143</v>
       </c>
       <c r="I36" t="n">
-        <v>34.4966656126451</v>
+        <v>34.49666561264511</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6614871289157</v>
+        <v>94.66148712891571</v>
       </c>
       <c r="K36" t="n">
-        <v>161.7915589631534</v>
+        <v>161.7915589631535</v>
       </c>
       <c r="L36" t="n">
         <v>217.5487173444581</v>
@@ -33760,7 +33760,7 @@
         <v>127.8969370688437</v>
       </c>
       <c r="R36" t="n">
-        <v>62.20825457485404</v>
+        <v>62.20825457485405</v>
       </c>
       <c r="S36" t="n">
         <v>18.61062151204483</v>
@@ -33769,7 +33769,7 @@
         <v>4.038526840512208</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06591719543817537</v>
+        <v>0.06591719543817538</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8399939877695349</v>
+        <v>0.839993987769535</v>
       </c>
       <c r="H37" t="n">
-        <v>7.468310182169143</v>
+        <v>7.468310182169144</v>
       </c>
       <c r="I37" t="n">
         <v>25.26091010492384</v>
       </c>
       <c r="J37" t="n">
-        <v>59.38757493530611</v>
+        <v>59.38757493530612</v>
       </c>
       <c r="K37" t="n">
-        <v>97.59202876086049</v>
+        <v>97.5920287608605</v>
       </c>
       <c r="L37" t="n">
         <v>124.8841970543907</v>
@@ -33830,22 +33830,22 @@
         <v>128.5419890556781</v>
       </c>
       <c r="O37" t="n">
-        <v>118.7293320167339</v>
+        <v>118.729332016734</v>
       </c>
       <c r="P37" t="n">
-        <v>101.5934546662353</v>
+        <v>101.5934546662354</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.33804201222897</v>
+        <v>70.33804201222898</v>
       </c>
       <c r="R37" t="n">
-        <v>37.76918421371017</v>
+        <v>37.76918421371018</v>
       </c>
       <c r="S37" t="n">
         <v>14.63880431412907</v>
       </c>
       <c r="T37" t="n">
-        <v>3.58906522046983</v>
+        <v>3.589065220469831</v>
       </c>
       <c r="U37" t="n">
         <v>0.04581785387833832</v>
@@ -33888,7 +33888,7 @@
         <v>1.872622503570273</v>
       </c>
       <c r="H38" t="n">
-        <v>19.17799521468906</v>
+        <v>19.17799521468907</v>
       </c>
       <c r="I38" t="n">
         <v>72.19427906889302</v>
@@ -33924,7 +33924,7 @@
         <v>42.67238530010764</v>
       </c>
       <c r="T38" t="n">
-        <v>8.197405009378874</v>
+        <v>8.197405009378876</v>
       </c>
       <c r="U38" t="n">
         <v>0.1498098002856218</v>
@@ -33970,13 +33970,13 @@
         <v>9.676644290324143</v>
       </c>
       <c r="I39" t="n">
-        <v>34.4966656126451</v>
+        <v>34.49666561264511</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6614871289157</v>
+        <v>94.66148712891571</v>
       </c>
       <c r="K39" t="n">
-        <v>161.7915589631534</v>
+        <v>161.7915589631535</v>
       </c>
       <c r="L39" t="n">
         <v>217.5487173444581</v>
@@ -33997,7 +33997,7 @@
         <v>127.8969370688437</v>
       </c>
       <c r="R39" t="n">
-        <v>62.20825457485404</v>
+        <v>62.20825457485405</v>
       </c>
       <c r="S39" t="n">
         <v>18.61062151204483</v>
@@ -34006,7 +34006,7 @@
         <v>4.038526840512208</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06591719543817537</v>
+        <v>0.06591719543817538</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8399939877695349</v>
+        <v>0.839993987769535</v>
       </c>
       <c r="H40" t="n">
-        <v>7.468310182169143</v>
+        <v>7.468310182169144</v>
       </c>
       <c r="I40" t="n">
         <v>25.26091010492384</v>
       </c>
       <c r="J40" t="n">
-        <v>59.38757493530611</v>
+        <v>59.38757493530612</v>
       </c>
       <c r="K40" t="n">
-        <v>97.59202876086049</v>
+        <v>97.5920287608605</v>
       </c>
       <c r="L40" t="n">
         <v>124.8841970543907</v>
@@ -34067,22 +34067,22 @@
         <v>128.5419890556781</v>
       </c>
       <c r="O40" t="n">
-        <v>118.7293320167339</v>
+        <v>118.729332016734</v>
       </c>
       <c r="P40" t="n">
-        <v>101.5934546662353</v>
+        <v>101.5934546662354</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.33804201222897</v>
+        <v>70.33804201222898</v>
       </c>
       <c r="R40" t="n">
-        <v>37.76918421371017</v>
+        <v>37.76918421371018</v>
       </c>
       <c r="S40" t="n">
         <v>14.63880431412907</v>
       </c>
       <c r="T40" t="n">
-        <v>3.58906522046983</v>
+        <v>3.589065220469831</v>
       </c>
       <c r="U40" t="n">
         <v>0.04581785387833832</v>
@@ -34125,7 +34125,7 @@
         <v>1.872622503570273</v>
       </c>
       <c r="H41" t="n">
-        <v>19.17799521468906</v>
+        <v>19.17799521468907</v>
       </c>
       <c r="I41" t="n">
         <v>72.19427906889302</v>
@@ -34161,7 +34161,7 @@
         <v>42.67238530010764</v>
       </c>
       <c r="T41" t="n">
-        <v>8.197405009378874</v>
+        <v>8.197405009378876</v>
       </c>
       <c r="U41" t="n">
         <v>0.1498098002856218</v>
@@ -34207,13 +34207,13 @@
         <v>9.676644290324143</v>
       </c>
       <c r="I42" t="n">
-        <v>34.4966656126451</v>
+        <v>34.49666561264511</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6614871289157</v>
+        <v>94.66148712891571</v>
       </c>
       <c r="K42" t="n">
-        <v>161.7915589631534</v>
+        <v>161.7915589631535</v>
       </c>
       <c r="L42" t="n">
         <v>217.5487173444581</v>
@@ -34234,7 +34234,7 @@
         <v>127.8969370688437</v>
       </c>
       <c r="R42" t="n">
-        <v>62.20825457485404</v>
+        <v>62.20825457485405</v>
       </c>
       <c r="S42" t="n">
         <v>18.61062151204483</v>
@@ -34243,7 +34243,7 @@
         <v>4.038526840512208</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06591719543817537</v>
+        <v>0.06591719543817538</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8399939877695349</v>
+        <v>0.839993987769535</v>
       </c>
       <c r="H43" t="n">
-        <v>7.468310182169143</v>
+        <v>7.468310182169144</v>
       </c>
       <c r="I43" t="n">
         <v>25.26091010492384</v>
       </c>
       <c r="J43" t="n">
-        <v>59.38757493530611</v>
+        <v>59.38757493530612</v>
       </c>
       <c r="K43" t="n">
-        <v>97.59202876086049</v>
+        <v>97.5920287608605</v>
       </c>
       <c r="L43" t="n">
         <v>124.8841970543907</v>
@@ -34304,22 +34304,22 @@
         <v>128.5419890556781</v>
       </c>
       <c r="O43" t="n">
-        <v>118.7293320167339</v>
+        <v>118.729332016734</v>
       </c>
       <c r="P43" t="n">
-        <v>101.5934546662353</v>
+        <v>101.5934546662354</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.33804201222897</v>
+        <v>70.33804201222898</v>
       </c>
       <c r="R43" t="n">
-        <v>37.76918421371017</v>
+        <v>37.76918421371018</v>
       </c>
       <c r="S43" t="n">
         <v>14.63880431412907</v>
       </c>
       <c r="T43" t="n">
-        <v>3.58906522046983</v>
+        <v>3.589065220469831</v>
       </c>
       <c r="U43" t="n">
         <v>0.04581785387833832</v>
@@ -34362,7 +34362,7 @@
         <v>1.872622503570273</v>
       </c>
       <c r="H44" t="n">
-        <v>19.17799521468906</v>
+        <v>19.17799521468907</v>
       </c>
       <c r="I44" t="n">
         <v>72.19427906889302</v>
@@ -34398,7 +34398,7 @@
         <v>42.67238530010764</v>
       </c>
       <c r="T44" t="n">
-        <v>8.197405009378874</v>
+        <v>8.197405009378876</v>
       </c>
       <c r="U44" t="n">
         <v>0.1498098002856218</v>
@@ -34444,13 +34444,13 @@
         <v>9.676644290324143</v>
       </c>
       <c r="I45" t="n">
-        <v>34.4966656126451</v>
+        <v>34.49666561264511</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6614871289157</v>
+        <v>94.66148712891571</v>
       </c>
       <c r="K45" t="n">
-        <v>161.7915589631534</v>
+        <v>161.7915589631535</v>
       </c>
       <c r="L45" t="n">
         <v>217.5487173444581</v>
@@ -34471,7 +34471,7 @@
         <v>127.8969370688437</v>
       </c>
       <c r="R45" t="n">
-        <v>62.20825457485404</v>
+        <v>62.20825457485405</v>
       </c>
       <c r="S45" t="n">
         <v>18.61062151204483</v>
@@ -34480,7 +34480,7 @@
         <v>4.038526840512208</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06591719543817537</v>
+        <v>0.06591719543817538</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8399939877695349</v>
+        <v>0.839993987769535</v>
       </c>
       <c r="H46" t="n">
-        <v>7.468310182169143</v>
+        <v>7.468310182169144</v>
       </c>
       <c r="I46" t="n">
         <v>25.26091010492384</v>
       </c>
       <c r="J46" t="n">
-        <v>59.38757493530611</v>
+        <v>59.38757493530612</v>
       </c>
       <c r="K46" t="n">
-        <v>97.59202876086049</v>
+        <v>97.5920287608605</v>
       </c>
       <c r="L46" t="n">
         <v>124.8841970543907</v>
@@ -34541,22 +34541,22 @@
         <v>128.5419890556781</v>
       </c>
       <c r="O46" t="n">
-        <v>118.7293320167339</v>
+        <v>118.729332016734</v>
       </c>
       <c r="P46" t="n">
-        <v>101.5934546662353</v>
+        <v>101.5934546662354</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.33804201222897</v>
+        <v>70.33804201222898</v>
       </c>
       <c r="R46" t="n">
-        <v>37.76918421371017</v>
+        <v>37.76918421371018</v>
       </c>
       <c r="S46" t="n">
         <v>14.63880431412907</v>
       </c>
       <c r="T46" t="n">
-        <v>3.58906522046983</v>
+        <v>3.589065220469831</v>
       </c>
       <c r="U46" t="n">
         <v>0.04581785387833832</v>
@@ -35412,19 +35412,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6010049037461158</v>
+        <v>0.6010049037461442</v>
       </c>
       <c r="L11" t="n">
         <v>59.29740962167688</v>
       </c>
       <c r="M11" t="n">
-        <v>78.00523777252297</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="N11" t="n">
-        <v>78.00523777252297</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="O11" t="n">
-        <v>78.00523777252297</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="P11" t="n">
         <v>14.77486462403874</v>
@@ -35494,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>14.91293691639206</v>
+        <v>14.91293691639208</v>
       </c>
       <c r="M12" t="n">
-        <v>69.4448142859504</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="N12" t="n">
         <v>68.50099756401571</v>
       </c>
       <c r="O12" t="n">
-        <v>78.00523777252297</v>
+        <v>69.44481428595046</v>
       </c>
       <c r="P12" t="n">
-        <v>78.00523777252297</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35649,19 +35649,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.6010049037461158</v>
+        <v>0.6010049037461442</v>
       </c>
       <c r="L14" t="n">
         <v>59.29740962167688</v>
       </c>
       <c r="M14" t="n">
-        <v>78.00523777252297</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="N14" t="n">
-        <v>78.00523777252297</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="O14" t="n">
-        <v>78.00523777252297</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="P14" t="n">
         <v>14.77486462403874</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>28.95941608642391</v>
       </c>
       <c r="L15" t="n">
-        <v>38.35968378240169</v>
+        <v>14.91293691639208</v>
       </c>
       <c r="M15" t="n">
-        <v>45.99806741994078</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="N15" t="n">
-        <v>68.50099756401571</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="O15" t="n">
-        <v>78.00523777252297</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="P15" t="n">
-        <v>78.00523777252297</v>
+        <v>30.98115799101922</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35886,19 +35886,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.6010049037461158</v>
+        <v>0.6010049037461442</v>
       </c>
       <c r="L17" t="n">
         <v>59.29740962167688</v>
       </c>
       <c r="M17" t="n">
-        <v>78.00523777252297</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="N17" t="n">
-        <v>78.00523777252297</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="O17" t="n">
-        <v>78.00523777252297</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="P17" t="n">
         <v>14.77486462403874</v>
@@ -35968,19 +35968,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>78.00523777252297</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="M18" t="n">
-        <v>78.00523777252297</v>
+        <v>45.99806741994081</v>
       </c>
       <c r="N18" t="n">
         <v>68.50099756401571</v>
       </c>
       <c r="O18" t="n">
-        <v>29.84033256231322</v>
+        <v>38.35968378240175</v>
       </c>
       <c r="P18" t="n">
-        <v>54.51741864002924</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36123,19 +36123,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.6010049037461158</v>
+        <v>0.6010049037461442</v>
       </c>
       <c r="L20" t="n">
         <v>59.29740962167688</v>
       </c>
       <c r="M20" t="n">
-        <v>78.00523777252297</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="N20" t="n">
-        <v>78.00523777252297</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="O20" t="n">
-        <v>78.00523777252297</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="P20" t="n">
         <v>14.77486462403874</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>28.95941608642389</v>
+        <v>28.95941608642391</v>
       </c>
       <c r="L21" t="n">
-        <v>78.00523777252297</v>
+        <v>57.56517290618763</v>
       </c>
       <c r="M21" t="n">
-        <v>55.39833511591857</v>
+        <v>45.99806741994081</v>
       </c>
       <c r="N21" t="n">
         <v>68.50099756401571</v>
       </c>
       <c r="O21" t="n">
-        <v>78.00523777252297</v>
+        <v>29.84033256231325</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.6010049037461158</v>
+        <v>0.6010049037461442</v>
       </c>
       <c r="L23" t="n">
         <v>59.29740962167688</v>
@@ -36372,7 +36372,7 @@
         <v>108.8082787932841</v>
       </c>
       <c r="O23" t="n">
-        <v>78.00523777252297</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="P23" t="n">
         <v>14.77486462403874</v>
@@ -36439,10 +36439,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>28.95941608642389</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>108.8082787932841</v>
+        <v>26.22237869854854</v>
       </c>
       <c r="M24" t="n">
         <v>108.8082787932841</v>
@@ -36451,10 +36451,10 @@
         <v>108.8082787932841</v>
       </c>
       <c r="O24" t="n">
-        <v>75.45256861420228</v>
+        <v>108.8082787932841</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>78.18960600207758</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.6010049037461158</v>
+        <v>0.6010049037461442</v>
       </c>
       <c r="L26" t="n">
         <v>59.29740962167688</v>
@@ -36609,7 +36609,7 @@
         <v>108.8082787932841</v>
       </c>
       <c r="O26" t="n">
-        <v>78.00523777252297</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="P26" t="n">
         <v>14.77486462403874</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>28.95941608642389</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>108.8082787932841</v>
       </c>
       <c r="M27" t="n">
-        <v>75.45256861420228</v>
+        <v>66.52965992781689</v>
       </c>
       <c r="N27" t="n">
-        <v>108.8082787932841</v>
+        <v>68.50099756401571</v>
       </c>
       <c r="O27" t="n">
         <v>108.8082787932841</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>78.18960600207758</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0.6010049037461158</v>
+        <v>0.6010049037461442</v>
       </c>
       <c r="L29" t="n">
         <v>59.29740962167688</v>
@@ -36846,7 +36846,7 @@
         <v>108.8082787932841</v>
       </c>
       <c r="O29" t="n">
-        <v>78.00523777252297</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="P29" t="n">
         <v>14.77486462403874</v>
@@ -36919,16 +36919,16 @@
         <v>108.8082787932841</v>
       </c>
       <c r="M30" t="n">
+        <v>66.52965992781689</v>
+      </c>
+      <c r="N30" t="n">
+        <v>68.50099756401571</v>
+      </c>
+      <c r="O30" t="n">
         <v>108.8082787932841</v>
       </c>
-      <c r="N30" t="n">
-        <v>108.8082787932841</v>
-      </c>
-      <c r="O30" t="n">
-        <v>104.4119847006261</v>
-      </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>78.18960600207758</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.6010049037461158</v>
+        <v>0.6010049037461442</v>
       </c>
       <c r="L32" t="n">
         <v>59.29740962167688</v>
@@ -37083,7 +37083,7 @@
         <v>108.8082787932841</v>
       </c>
       <c r="O32" t="n">
-        <v>78.00523777252297</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="P32" t="n">
         <v>14.77486462403874</v>
@@ -37150,10 +37150,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>28.95941608642389</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>108.8082787932841</v>
+        <v>26.22237869854854</v>
       </c>
       <c r="M33" t="n">
         <v>108.8082787932841</v>
@@ -37162,10 +37162,10 @@
         <v>108.8082787932841</v>
       </c>
       <c r="O33" t="n">
-        <v>75.45256861420228</v>
+        <v>108.8082787932841</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>78.18960600207758</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37308,19 +37308,19 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0.6010049037461158</v>
+        <v>0.6010049037461442</v>
       </c>
       <c r="L35" t="n">
         <v>59.29740962167688</v>
       </c>
       <c r="M35" t="n">
-        <v>78.00523777252297</v>
+        <v>78.00523777252326</v>
       </c>
       <c r="N35" t="n">
-        <v>78.00523777252297</v>
+        <v>78.00523777252326</v>
       </c>
       <c r="O35" t="n">
-        <v>78.00523777252297</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="P35" t="n">
         <v>14.77486462403874</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>28.95941608642389</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>78.00523777252297</v>
+        <v>78.00523777252326</v>
       </c>
       <c r="M36" t="n">
-        <v>78.00523777252297</v>
+        <v>45.99806741994081</v>
       </c>
       <c r="N36" t="n">
-        <v>68.50099756401571</v>
+        <v>77.02034878410466</v>
       </c>
       <c r="O36" t="n">
-        <v>55.39833511591857</v>
+        <v>29.84033256231325</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>78.00523777252326</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37545,19 +37545,19 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0.6010049037461158</v>
+        <v>0.6010049037461442</v>
       </c>
       <c r="L38" t="n">
         <v>59.29740962167688</v>
       </c>
       <c r="M38" t="n">
-        <v>78.00523777252297</v>
+        <v>78.00523777252326</v>
       </c>
       <c r="N38" t="n">
-        <v>78.00523777252297</v>
+        <v>78.00523777252326</v>
       </c>
       <c r="O38" t="n">
-        <v>78.00523777252297</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="P38" t="n">
         <v>14.77486462403874</v>
@@ -37624,19 +37624,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>28.95941608642389</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>78.00523777252297</v>
+        <v>78.00523777252326</v>
       </c>
       <c r="M39" t="n">
-        <v>45.99806741994078</v>
+        <v>78.00523777252326</v>
       </c>
       <c r="N39" t="n">
-        <v>77.90126525999349</v>
+        <v>74.85351099383547</v>
       </c>
       <c r="O39" t="n">
-        <v>78.00523777252297</v>
+        <v>78.00523777252326</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37782,19 +37782,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0.6010049037461158</v>
+        <v>0.6010049037461442</v>
       </c>
       <c r="L41" t="n">
         <v>59.29740962167688</v>
       </c>
       <c r="M41" t="n">
-        <v>78.00523777252297</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="N41" t="n">
-        <v>78.00523777252297</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="O41" t="n">
-        <v>78.00523777252297</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="P41" t="n">
         <v>14.77486462403874</v>
@@ -37864,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>78.00523777252297</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="M42" t="n">
-        <v>78.00523777252297</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="N42" t="n">
-        <v>74.85351099383519</v>
+        <v>68.50099756401571</v>
       </c>
       <c r="O42" t="n">
-        <v>78.00523777252297</v>
+        <v>29.84033256231325</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>54.5174186400293</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38019,19 +38019,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0.6010049037461158</v>
+        <v>0.6010049037461442</v>
       </c>
       <c r="L44" t="n">
         <v>59.29740962167688</v>
       </c>
       <c r="M44" t="n">
-        <v>78.00523777252297</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="N44" t="n">
-        <v>78.00523777252297</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="O44" t="n">
-        <v>78.00523777252297</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="P44" t="n">
         <v>14.77486462403874</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>28.95941608642389</v>
+        <v>28.95941608642391</v>
       </c>
       <c r="L45" t="n">
-        <v>55.39833511591857</v>
+        <v>57.56517290618763</v>
       </c>
       <c r="M45" t="n">
-        <v>78.00523777252297</v>
+        <v>45.99806741994081</v>
       </c>
       <c r="N45" t="n">
         <v>68.50099756401571</v>
       </c>
       <c r="O45" t="n">
-        <v>78.00523777252297</v>
+        <v>29.84033256231325</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>78.00523777252303</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
